--- a/docs/tc_accounts_hmrc.xlsx
+++ b/docs/tc_accounts_hmrc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company\trade control\apps\repos\tradecontrol.github.io\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BB833-ED96-435F-B55C-03FBFEDA6CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F55036-BF1C-4DCE-A3DF-E5D61505119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4C5D61F-B9CE-4B9D-A12B-EB781C606417}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cash Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="Trade Statement" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="228">
   <si>
     <t>TRADE STATEMENT - MAY 2021-22</t>
   </si>
@@ -712,6 +712,12 @@
   </si>
   <si>
     <t>CAPITAL</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
   </si>
 </sst>
 </file>
@@ -1467,20 +1473,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217550A2-E05D-4A09-B831-439A3C00C06F}">
-  <dimension ref="A1:Q199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B3F2C1-3BFB-434B-9F43-3E4E0E36F92B}">
+  <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D116" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="15" width="11.7109375" style="24" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="5" customWidth="1"/>
@@ -8425,10 +8431,10 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D154" s="24">
         <v>0</v>
@@ -8474,166 +8480,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="37" t="s">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D155" s="24">
+        <v>0</v>
+      </c>
+      <c r="E155" s="24">
+        <v>0</v>
+      </c>
+      <c r="F155" s="24">
+        <v>0</v>
+      </c>
+      <c r="G155" s="24">
+        <v>0</v>
+      </c>
+      <c r="H155" s="24">
+        <v>0</v>
+      </c>
+      <c r="I155" s="24">
+        <v>0</v>
+      </c>
+      <c r="J155" s="24">
+        <v>0</v>
+      </c>
+      <c r="K155" s="24">
+        <v>0</v>
+      </c>
+      <c r="L155" s="24">
+        <v>0</v>
+      </c>
+      <c r="M155" s="24">
+        <v>0</v>
+      </c>
+      <c r="N155" s="24">
+        <v>0</v>
+      </c>
+      <c r="O155" s="24">
+        <v>0</v>
+      </c>
+      <c r="P155" s="5">
+        <f>SUM(D155:O155)</f>
+        <v>0</v>
+      </c>
+      <c r="Q155" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="38"/>
-      <c r="C155" s="39" t="str">
+      <c r="B156" s="38"/>
+      <c r="C156" s="39" t="str">
         <f>"TC-TAXGD"</f>
         <v>TC-TAXGD</v>
       </c>
-      <c r="D155" s="40">
-        <f>SUM(D154:D154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="E155" s="40">
-        <f>SUM(E154:E154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="F155" s="40">
-        <f>SUM(F154:F154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="40">
-        <f>SUM(G154:G154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="40">
-        <f>SUM(H154:H154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="I155" s="40">
-        <f>SUM(I154:I154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="J155" s="40">
-        <f>SUM(J154:J154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="K155" s="40">
-        <f>SUM(K154:K154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="L155" s="40">
-        <f>SUM(L154:L154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="M155" s="40">
-        <f>SUM(M154:M154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="N155" s="40">
-        <f>SUM(N154:N154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="O155" s="40">
-        <f>SUM(O154:O154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="P155" s="41">
-        <f>SUM(P154:P154)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="Q155" s="40">
-        <f>SUM(Q154:Q154)*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="2"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="6"/>
-    </row>
-    <row r="157" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="18" t="s">
+      <c r="D156" s="40">
+        <f>SUM(D154:D155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="E156" s="40">
+        <f>SUM(E154:E155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="40">
+        <f>SUM(F154:F155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G156" s="40">
+        <f>SUM(G154:G155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="40">
+        <f>SUM(H154:H155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="I156" s="40">
+        <f>SUM(I154:I155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="40">
+        <f>SUM(J154:J155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="40">
+        <f>SUM(K154:K155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="40">
+        <f>SUM(L154:L155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="M156" s="40">
+        <f>SUM(M154:M155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="N156" s="40">
+        <f>SUM(N154:N155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="O156" s="40">
+        <f>SUM(O154:O155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="P156" s="41">
+        <f>SUM(P154:P155)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="Q156" s="40">
+        <f>SUM(Q154:Q155)*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B157" s="19"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
-      <c r="O157" s="21"/>
-      <c r="P157" s="22"/>
-      <c r="Q157" s="23"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D158" s="24">
-        <v>0</v>
-      </c>
-      <c r="E158" s="24">
-        <v>0</v>
-      </c>
-      <c r="F158" s="24">
-        <v>0</v>
-      </c>
-      <c r="G158" s="24">
-        <v>0</v>
-      </c>
-      <c r="H158" s="24">
-        <v>0</v>
-      </c>
-      <c r="I158" s="24">
-        <v>0</v>
-      </c>
-      <c r="J158" s="24">
-        <v>0</v>
-      </c>
-      <c r="K158" s="24">
-        <v>0</v>
-      </c>
-      <c r="L158" s="24">
-        <v>0</v>
-      </c>
-      <c r="M158" s="24">
-        <v>0</v>
-      </c>
-      <c r="N158" s="24">
-        <v>0</v>
-      </c>
-      <c r="O158" s="24">
-        <v>0</v>
-      </c>
-      <c r="P158" s="5">
-        <f>SUM(D158:O158)</f>
-        <v>0</v>
-      </c>
-      <c r="Q158" s="25">
-        <v>0</v>
-      </c>
+      <c r="B158" s="19"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21"/>
+      <c r="O158" s="21"/>
+      <c r="P158" s="22"/>
+      <c r="Q158" s="23"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D159" s="24">
         <v>0</v>
@@ -8740,59 +8746,59 @@
         <v>TC-TAXCO</v>
       </c>
       <c r="D161" s="40">
-        <f>SUM(D158:D160)*-1</f>
+        <f>SUM(D159:D160)*-1</f>
         <v>0</v>
       </c>
       <c r="E161" s="40">
-        <f>SUM(E158:E160)*-1</f>
+        <f>SUM(E159:E160)*-1</f>
         <v>0</v>
       </c>
       <c r="F161" s="40">
-        <f>SUM(F158:F160)*-1</f>
+        <f>SUM(F159:F160)*-1</f>
         <v>0</v>
       </c>
       <c r="G161" s="40">
-        <f>SUM(G158:G160)*-1</f>
+        <f>SUM(G159:G160)*-1</f>
         <v>0</v>
       </c>
       <c r="H161" s="40">
-        <f>SUM(H158:H160)*-1</f>
+        <f>SUM(H159:H160)*-1</f>
         <v>0</v>
       </c>
       <c r="I161" s="40">
-        <f>SUM(I158:I160)*-1</f>
+        <f>SUM(I159:I160)*-1</f>
         <v>0</v>
       </c>
       <c r="J161" s="40">
-        <f>SUM(J158:J160)*-1</f>
+        <f>SUM(J159:J160)*-1</f>
         <v>0</v>
       </c>
       <c r="K161" s="40">
-        <f>SUM(K158:K160)*-1</f>
+        <f>SUM(K159:K160)*-1</f>
         <v>0</v>
       </c>
       <c r="L161" s="40">
-        <f>SUM(L158:L160)*-1</f>
+        <f>SUM(L159:L160)*-1</f>
         <v>0</v>
       </c>
       <c r="M161" s="40">
-        <f>SUM(M158:M160)*-1</f>
+        <f>SUM(M159:M160)*-1</f>
         <v>0</v>
       </c>
       <c r="N161" s="40">
-        <f>SUM(N158:N160)*-1</f>
+        <f>SUM(N159:N160)*-1</f>
         <v>0</v>
       </c>
       <c r="O161" s="40">
-        <f>SUM(O158:O160)*-1</f>
+        <f>SUM(O159:O160)*-1</f>
         <v>0</v>
       </c>
       <c r="P161" s="41">
-        <f>SUM(P158:P160)*-1</f>
+        <f>SUM(P159:P160)*-1</f>
         <v>0</v>
       </c>
       <c r="Q161" s="40">
-        <f>SUM(Q158:Q160)*-1</f>
+        <f>SUM(Q159:Q160)*-1</f>
         <v>0</v>
       </c>
     </row>
@@ -8824,59 +8830,59 @@
         <v>179</v>
       </c>
       <c r="D164" s="4">
-        <f>D155</f>
+        <f>D156</f>
         <v>0</v>
       </c>
       <c r="E164" s="4">
-        <f>E155</f>
+        <f>E156</f>
         <v>0</v>
       </c>
       <c r="F164" s="4">
-        <f>F155</f>
+        <f>F156</f>
         <v>0</v>
       </c>
       <c r="G164" s="4">
-        <f>G155</f>
+        <f>G156</f>
         <v>0</v>
       </c>
       <c r="H164" s="4">
-        <f>H155</f>
+        <f>H156</f>
         <v>0</v>
       </c>
       <c r="I164" s="4">
-        <f>I155</f>
+        <f>I156</f>
         <v>0</v>
       </c>
       <c r="J164" s="4">
-        <f>J155</f>
+        <f>J156</f>
         <v>0</v>
       </c>
       <c r="K164" s="4">
-        <f>K155</f>
+        <f>K156</f>
         <v>0</v>
       </c>
       <c r="L164" s="4">
-        <f>L155</f>
+        <f>L156</f>
         <v>0</v>
       </c>
       <c r="M164" s="4">
-        <f>M155</f>
+        <f>M156</f>
         <v>0</v>
       </c>
       <c r="N164" s="4">
-        <f>N155</f>
+        <f>N156</f>
         <v>0</v>
       </c>
       <c r="O164" s="4">
-        <f>O155</f>
+        <f>O156</f>
         <v>0</v>
       </c>
       <c r="P164" s="5">
-        <f>P155</f>
+        <f>P156</f>
         <v>0</v>
       </c>
       <c r="Q164" s="6">
-        <f>Q155</f>
+        <f>Q156</f>
         <v>0</v>
       </c>
     </row>
@@ -9109,59 +9115,59 @@
         <v>CP8</v>
       </c>
       <c r="D170" s="4">
-        <f>D128+D33+D120+D161</f>
+        <f>D128+D124+D33+D120+D45+D161+D39</f>
         <v>-20001</v>
       </c>
       <c r="E170" s="4">
-        <f>E128+E33+E120+E161</f>
+        <f>E128+E124+E33+E120+E45+E161+E39</f>
         <v>0</v>
       </c>
       <c r="F170" s="4">
-        <f>F128+F33+F120+F161</f>
+        <f>F128+F124+F33+F120+F45+F161+F39</f>
         <v>0</v>
       </c>
       <c r="G170" s="4">
-        <f>G128+G33+G120+G161</f>
+        <f>G128+G124+G33+G120+G45+G161+G39</f>
         <v>833.34</v>
       </c>
       <c r="H170" s="4">
-        <f>H128+H33+H120+H161</f>
+        <f>H128+H124+H33+H120+H45+H161+H39</f>
         <v>0</v>
       </c>
       <c r="I170" s="4">
-        <f>I128+I33+I120+I161</f>
+        <f>I128+I124+I33+I120+I45+I161+I39</f>
         <v>1250</v>
       </c>
       <c r="J170" s="4">
-        <f>J128+J33+J120+J161</f>
+        <f>J128+J124+J33+J120+J45+J161+J39</f>
         <v>583.34</v>
       </c>
       <c r="K170" s="4">
-        <f>K128+K33+K120+K161</f>
+        <f>K128+K124+K33+K120+K45+K161+K39</f>
         <v>302</v>
       </c>
       <c r="L170" s="4">
-        <f>L128+L33+L120+L161</f>
+        <f>L128+L124+L33+L120+L45+L161+L39</f>
         <v>-125</v>
       </c>
       <c r="M170" s="4">
-        <f>M128+M33+M120+M161</f>
+        <f>M128+M124+M33+M120+M45+M161+M39</f>
         <v>2433.34</v>
       </c>
       <c r="N170" s="4">
-        <f>N128+N33+N120+N161</f>
+        <f>N128+N124+N33+N120+N45+N161+N39</f>
         <v>-1182.74</v>
       </c>
       <c r="O170" s="4">
-        <f>O128+O33+O120+O161</f>
-        <v>135.26</v>
+        <f>O128+O124+O33+O120+O45+O161+O39</f>
+        <v>2010.51</v>
       </c>
       <c r="P170" s="5">
-        <f>P128+P33+P120+P161</f>
-        <v>-15771.46</v>
+        <f>P128+P124+P33+P120+P45+P161+P39</f>
+        <v>-13896.21</v>
       </c>
       <c r="Q170" s="6">
-        <f>Q128+Q33+Q120+Q161</f>
+        <f>Q128+Q124+Q33+Q120+Q45+Q161+Q39</f>
         <v>0</v>
       </c>
     </row>
@@ -9223,11 +9229,11 @@
       </c>
       <c r="O171" s="4">
         <f>O169+O170</f>
-        <v>3372.96</v>
+        <v>5248.21</v>
       </c>
       <c r="P171" s="5">
         <f>P169+P170</f>
-        <v>9106.0750000000007</v>
+        <v>10981.325000000001</v>
       </c>
       <c r="Q171" s="6">
         <f>Q169+Q170</f>
@@ -9247,59 +9253,59 @@
         <v>CP40</v>
       </c>
       <c r="D172" s="4">
-        <f>D50+D24+D68+D124+D55+D45+D39</f>
+        <f>D50+D24+D68+D55</f>
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <f>E50+E24+E68+E124+E55+E45+E39</f>
+        <f>E50+E24+E68+E55</f>
         <v>0</v>
       </c>
       <c r="F172" s="4">
-        <f>F50+F24+F68+F124+F55+F45+F39</f>
+        <f>F50+F24+F68+F55</f>
         <v>0</v>
       </c>
       <c r="G172" s="4">
-        <f>G50+G24+G68+G124+G55+G45+G39</f>
+        <f>G50+G24+G68+G55</f>
         <v>0</v>
       </c>
       <c r="H172" s="4">
-        <f>H50+H24+H68+H124+H55+H45+H39</f>
+        <f>H50+H24+H68+H55</f>
         <v>0</v>
       </c>
       <c r="I172" s="4">
-        <f>I50+I24+I68+I124+I55+I45+I39</f>
+        <f>I50+I24+I68+I55</f>
         <v>0</v>
       </c>
       <c r="J172" s="4">
-        <f>J50+J24+J68+J124+J55+J45+J39</f>
+        <f>J50+J24+J68+J55</f>
         <v>-46.875</v>
       </c>
       <c r="K172" s="4">
-        <f>K50+K24+K68+K124+K55+K45+K39</f>
+        <f>K50+K24+K68+K55</f>
         <v>-12.5</v>
       </c>
       <c r="L172" s="4">
-        <f>L50+L24+L68+L124+L55+L45+L39</f>
+        <f>L50+L24+L68+L55</f>
         <v>0</v>
       </c>
       <c r="M172" s="4">
-        <f>M50+M24+M68+M124+M55+M45+M39</f>
+        <f>M50+M24+M68+M55</f>
         <v>-16.670000000000002</v>
       </c>
       <c r="N172" s="4">
-        <f>N50+N24+N68+N124+N55+N45+N39</f>
+        <f>N50+N24+N68+N55</f>
         <v>-1195.83</v>
       </c>
       <c r="O172" s="4">
-        <f>O50+O24+O68+O124+O55+O45+O39</f>
-        <v>-624.75</v>
+        <f>O50+O24+O68+O55</f>
+        <v>-2500</v>
       </c>
       <c r="P172" s="5">
-        <f>P50+P24+P68+P124+P55+P45+P39</f>
-        <v>-1896.625</v>
+        <f>P50+P24+P68+P55</f>
+        <v>-3771.875</v>
       </c>
       <c r="Q172" s="6">
-        <f>Q50+Q24+Q68+Q124+Q55+Q45+Q39</f>
+        <f>Q50+Q24+Q68+Q55</f>
         <v>0</v>
       </c>
     </row>
@@ -9784,7 +9790,7 @@
         <v>659</v>
       </c>
       <c r="Q181" s="25">
-        <v>659</v>
+        <v>-710.8</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -9942,7 +9948,7 @@
       </c>
       <c r="Q184" s="50">
         <f>SUM(Q181:Q183)</f>
-        <v>16978.599999999999</v>
+        <v>15608.8</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -10219,7 +10225,7 @@
         <v>4853.62</v>
       </c>
       <c r="Q191" s="25">
-        <v>4853.62</v>
+        <v>-710.8</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
@@ -10423,7 +10429,7 @@
         <v>-1369.7955099999999</v>
       </c>
       <c r="Q195" s="25">
-        <v>-1369.7955099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
@@ -10587,10 +10593,37 @@
       </c>
       <c r="Q198" s="50">
         <f>SUM(Q187:Q197)</f>
-        <v>5839.654489999999</v>
+        <v>1645.0300000000011</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O200" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="P200" s="5">
+        <f>ABS(P193)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O201" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="P201" s="5">
+        <f>P187+P188</f>
+        <v>1875.25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O202" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="P202" s="5">
+        <f>SUM(P189:P192)+SUM(P194:P197)</f>
+        <v>3965.4044900000008</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/tc_accounts_hmrc.xlsx
+++ b/docs/tc_accounts_hmrc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company\trade control\apps\repos\tradecontrol.github.io\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F55036-BF1C-4DCE-A3DF-E5D61505119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDDB80E-B746-40D1-9EC2-228145A61379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C4C5D61F-B9CE-4B9D-A12B-EB781C606417}"/>
   </bookViews>
@@ -1477,10 +1477,10 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1739,59 +1739,59 @@
         <v>TC-INVEST</v>
       </c>
       <c r="D8" s="30">
-        <f>SUM(D6:D7)</f>
+        <f t="shared" ref="D8:Q8" si="0">SUM(D6:D7)</f>
         <v>19042.66</v>
       </c>
       <c r="E8" s="30">
-        <f>SUM(E6:E7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f>SUM(F6:F7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="30">
-        <f>SUM(G6:G7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="30">
-        <f>SUM(H6:H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="30">
-        <f>SUM(I6:I7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="30">
-        <f>SUM(J6:J7)</f>
+        <f t="shared" si="0"/>
         <v>-958.34</v>
       </c>
       <c r="K8" s="30">
-        <f>SUM(K6:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="30">
-        <f>SUM(L6:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="30">
-        <f>SUM(M6:M7)</f>
+        <f t="shared" si="0"/>
         <v>-958.34</v>
       </c>
       <c r="N8" s="30">
-        <f>SUM(N6:N7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="30">
-        <f>SUM(O6:O7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="31">
-        <f>SUM(P6:P7)</f>
+        <f t="shared" si="0"/>
         <v>17125.98</v>
       </c>
       <c r="Q8" s="30">
-        <f>SUM(Q6:Q7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2046,59 +2046,59 @@
         <v>TC-SALES</v>
       </c>
       <c r="D15" s="35">
-        <f>SUM(D11:D14)</f>
+        <f t="shared" ref="D15:Q15" si="1">SUM(D11:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="35">
-        <f>SUM(E11:E14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="35">
-        <f>SUM(F11:F14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="35">
-        <f>SUM(G11:G14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="35">
-        <f>SUM(H11:H14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="35">
-        <f>SUM(I11:I14)</f>
+        <f t="shared" si="1"/>
         <v>821.67</v>
       </c>
       <c r="J15" s="35">
-        <f>SUM(J11:J14)</f>
+        <f t="shared" si="1"/>
         <v>721.02499999999998</v>
       </c>
       <c r="K15" s="35">
-        <f>SUM(K11:K14)</f>
+        <f t="shared" si="1"/>
         <v>469.38</v>
       </c>
       <c r="L15" s="35">
-        <f>SUM(L11:L14)</f>
+        <f t="shared" si="1"/>
         <v>354.74</v>
       </c>
       <c r="M15" s="35">
-        <f>SUM(M11:M14)</f>
+        <f t="shared" si="1"/>
         <v>686.21</v>
       </c>
       <c r="N15" s="35">
-        <f>SUM(N11:N14)</f>
+        <f t="shared" si="1"/>
         <v>1460.83</v>
       </c>
       <c r="O15" s="35">
-        <f>SUM(O11:O14)</f>
+        <f t="shared" si="1"/>
         <v>3237.7</v>
       </c>
       <c r="P15" s="36">
-        <f>SUM(P11:P14)</f>
+        <f t="shared" si="1"/>
         <v>7751.5549999999994</v>
       </c>
       <c r="Q15" s="35">
-        <f>SUM(Q11:Q14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <f>SUM(D18:O18)</f>
+        <f t="shared" ref="P18:P23" si="2">SUM(D18:O18)</f>
         <v>26.67</v>
       </c>
       <c r="Q18" s="25">
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <f>SUM(D19:O19)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="Q19" s="25">
@@ -2285,7 +2285,7 @@
         <v>833.33</v>
       </c>
       <c r="P20" s="5">
-        <f>SUM(D20:O20)</f>
+        <f t="shared" si="2"/>
         <v>833.33</v>
       </c>
       <c r="Q20" s="25">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="5">
-        <f>SUM(D21:O21)</f>
+        <f t="shared" si="2"/>
         <v>61.875</v>
       </c>
       <c r="Q21" s="25">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f>SUM(D22:O22)</f>
+        <f t="shared" si="2"/>
         <v>20.83</v>
       </c>
       <c r="Q22" s="25">
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <f>SUM(D23:O23)</f>
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
       <c r="Q23" s="25">
@@ -2455,59 +2455,59 @@
         <v>CP37</v>
       </c>
       <c r="D24" s="40">
-        <f>SUM(D18:D23)*-1</f>
+        <f t="shared" ref="D24:Q24" si="3">SUM(D18:D23)*-1</f>
         <v>0</v>
       </c>
       <c r="E24" s="40">
-        <f>SUM(E18:E23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F24" s="40">
-        <f>SUM(F18:F23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G24" s="40">
-        <f>SUM(G18:G23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="40">
-        <f>SUM(H18:H23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="40">
-        <f>SUM(I18:I23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="40">
-        <f>SUM(J18:J23)*-1</f>
+        <f t="shared" si="3"/>
         <v>-46.875</v>
       </c>
       <c r="K24" s="40">
-        <f>SUM(K18:K23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24" s="40">
-        <f>SUM(L18:L23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="40">
-        <f>SUM(M18:M23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="40">
-        <f>SUM(N18:N23)*-1</f>
+        <f t="shared" si="3"/>
         <v>-1070.83</v>
       </c>
       <c r="O24" s="40">
-        <f>SUM(O18:O23)*-1</f>
+        <f t="shared" si="3"/>
         <v>-833.33</v>
       </c>
       <c r="P24" s="41">
-        <f>SUM(P18:P23)*-1</f>
+        <f t="shared" si="3"/>
         <v>-1951.0349999999999</v>
       </c>
       <c r="Q24" s="40">
-        <f>SUM(Q18:Q23)*-1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f>SUM(D27:O27)</f>
+        <f t="shared" ref="P27:P32" si="4">SUM(D27:O27)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="25">
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <f>SUM(D28:O28)</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="Q28" s="25">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <f>SUM(D29:O29)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="Q29" s="25">
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <f>SUM(D30:O30)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30" s="25">
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <f>SUM(D31:O31)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="25">
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <f>SUM(D32:O32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="25">
@@ -2864,59 +2864,59 @@
         <v>TC-DIRECT</v>
       </c>
       <c r="D33" s="40">
-        <f>SUM(D27:D32)*-1</f>
+        <f t="shared" ref="D33:Q33" si="5">SUM(D27:D32)*-1</f>
         <v>0</v>
       </c>
       <c r="E33" s="40">
-        <f>SUM(E27:E32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F33" s="40">
-        <f>SUM(F27:F32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="40">
-        <f>SUM(G27:G32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H33" s="40">
-        <f>SUM(H27:H32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="40">
-        <f>SUM(I27:I32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33" s="40">
-        <f>SUM(J27:J32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K33" s="40">
-        <f>SUM(K27:K32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="40">
-        <f>SUM(L27:L32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="40">
-        <f>SUM(M27:M32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="40">
-        <f>SUM(N27:N32)*-1</f>
+        <f t="shared" si="5"/>
         <v>-550</v>
       </c>
       <c r="O33" s="40">
-        <f>SUM(O27:O32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="41">
-        <f>SUM(P27:P32)*-1</f>
+        <f t="shared" si="5"/>
         <v>-550</v>
       </c>
       <c r="Q33" s="40">
-        <f>SUM(Q27:Q32)*-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3120,59 +3120,59 @@
         <v>TC-WAGES</v>
       </c>
       <c r="D39" s="40">
-        <f>SUM(D36:D38)*-1</f>
+        <f t="shared" ref="D39:Q39" si="6">SUM(D36:D38)*-1</f>
         <v>0</v>
       </c>
       <c r="E39" s="40">
-        <f>SUM(E36:E38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F39" s="40">
-        <f>SUM(F36:F38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="40">
-        <f>SUM(G36:G38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" s="40">
-        <f>SUM(H36:H38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="40">
-        <f>SUM(I36:I38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="40">
-        <f>SUM(J36:J38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K39" s="40">
-        <f>SUM(K36:K38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L39" s="40">
-        <f>SUM(L36:L38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M39" s="40">
-        <f>SUM(M36:M38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N39" s="40">
-        <f>SUM(N36:N38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O39" s="40">
-        <f>SUM(O36:O38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P39" s="41">
-        <f>SUM(P36:P38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q39" s="40">
-        <f>SUM(Q36:Q38)*-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3376,59 +3376,59 @@
         <v>TC-SUBCON</v>
       </c>
       <c r="D45" s="35">
-        <f>SUM(D42:D44)</f>
+        <f t="shared" ref="D45:Q45" si="7">SUM(D42:D44)</f>
         <v>0</v>
       </c>
       <c r="E45" s="35">
-        <f>SUM(E42:E44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F45" s="35">
-        <f>SUM(F42:F44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G45" s="35">
-        <f>SUM(G42:G44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H45" s="35">
-        <f>SUM(H42:H44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I45" s="35">
-        <f>SUM(I42:I44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J45" s="35">
-        <f>SUM(J42:J44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K45" s="35">
-        <f>SUM(K42:K44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L45" s="35">
-        <f>SUM(L42:L44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M45" s="35">
-        <f>SUM(M42:M44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N45" s="35">
-        <f>SUM(N42:N44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O45" s="35">
-        <f>SUM(O42:O44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P45" s="36">
-        <f>SUM(P42:P44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q45" s="35">
-        <f>SUM(Q42:Q44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3581,59 +3581,59 @@
         <v>CP23</v>
       </c>
       <c r="D50" s="40">
-        <f>SUM(D48:D49)*-1</f>
+        <f t="shared" ref="D50:Q50" si="8">SUM(D48:D49)*-1</f>
         <v>0</v>
       </c>
       <c r="E50" s="40">
-        <f>SUM(E48:E49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F50" s="40">
-        <f>SUM(F48:F49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G50" s="40">
-        <f>SUM(G48:G49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50" s="40">
-        <f>SUM(H48:H49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I50" s="40">
-        <f>SUM(I48:I49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J50" s="40">
-        <f>SUM(J48:J49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K50" s="40">
-        <f>SUM(K48:K49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L50" s="40">
-        <f>SUM(L48:L49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M50" s="40">
-        <f>SUM(M48:M49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N50" s="40">
-        <f>SUM(N48:N49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O50" s="40">
-        <f>SUM(O48:O49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P50" s="41">
-        <f>SUM(P48:P49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q50" s="40">
-        <f>SUM(Q48:Q49)*-1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3786,59 +3786,59 @@
         <v>TC-PROPC</v>
       </c>
       <c r="D55" s="40">
-        <f>SUM(D53:D54)*-1</f>
+        <f t="shared" ref="D55:Q55" si="9">SUM(D53:D54)*-1</f>
         <v>0</v>
       </c>
       <c r="E55" s="40">
-        <f>SUM(E53:E54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F55" s="40">
-        <f>SUM(F53:F54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G55" s="40">
-        <f>SUM(G53:G54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H55" s="40">
-        <f>SUM(H53:H54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I55" s="40">
-        <f>SUM(I53:I54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J55" s="40">
-        <f>SUM(J53:J54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K55" s="40">
-        <f>SUM(K53:K54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L55" s="40">
-        <f>SUM(L53:L54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M55" s="40">
-        <f>SUM(M53:M54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N55" s="40">
-        <f>SUM(N53:N54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O55" s="40">
-        <f>SUM(O53:O54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P55" s="41">
-        <f>SUM(P53:P54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q55" s="40">
-        <f>SUM(Q53:Q54)*-1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="5">
-        <f>SUM(D58:O58)</f>
+        <f t="shared" ref="P58:P67" si="10">SUM(D58:O58)</f>
         <v>125</v>
       </c>
       <c r="Q58" s="25">
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="5">
-        <f>SUM(D59:O59)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q59" s="25">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="5">
-        <f>SUM(D60:O60)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q60" s="25">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="5">
-        <f>SUM(D61:O61)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q61" s="25">
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="5">
-        <f>SUM(D62:O62)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q62" s="25">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <f>SUM(D63:O63)</f>
+        <f t="shared" si="10"/>
         <v>16.670000000000002</v>
       </c>
       <c r="Q63" s="25">
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <f>SUM(D64:O64)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q64" s="25">
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="5">
-        <f>SUM(D65:O65)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q65" s="25">
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="5">
-        <f>SUM(D66:O66)</f>
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
       <c r="Q66" s="25">
@@ -4382,7 +4382,7 @@
         <v>1666.67</v>
       </c>
       <c r="P67" s="5">
-        <f>SUM(D67:O67)</f>
+        <f t="shared" si="10"/>
         <v>1666.67</v>
       </c>
       <c r="Q67" s="25">
@@ -4399,59 +4399,59 @@
         <v>TC-ADMIN</v>
       </c>
       <c r="D68" s="40">
-        <f>SUM(D58:D67)*-1</f>
+        <f t="shared" ref="D68:Q68" si="11">SUM(D58:D67)*-1</f>
         <v>0</v>
       </c>
       <c r="E68" s="40">
-        <f>SUM(E58:E67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F68" s="40">
-        <f>SUM(F58:F67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G68" s="40">
-        <f>SUM(G58:G67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H68" s="40">
-        <f>SUM(H58:H67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I68" s="40">
-        <f>SUM(I58:I67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J68" s="40">
-        <f>SUM(J58:J67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K68" s="40">
-        <f>SUM(K58:K67)*-1</f>
+        <f t="shared" si="11"/>
         <v>-12.5</v>
       </c>
       <c r="L68" s="40">
-        <f>SUM(L58:L67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M68" s="40">
-        <f>SUM(M58:M67)*-1</f>
+        <f t="shared" si="11"/>
         <v>-16.670000000000002</v>
       </c>
       <c r="N68" s="40">
-        <f>SUM(N58:N67)*-1</f>
+        <f t="shared" si="11"/>
         <v>-125</v>
       </c>
       <c r="O68" s="40">
-        <f>SUM(O58:O67)*-1</f>
+        <f t="shared" si="11"/>
         <v>-1666.67</v>
       </c>
       <c r="P68" s="41">
-        <f>SUM(P58:P67)*-1</f>
+        <f t="shared" si="11"/>
         <v>-1820.8400000000001</v>
       </c>
       <c r="Q68" s="40">
-        <f>SUM(Q58:Q67)*-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4553,59 +4553,59 @@
         <v>TC-GRANTS</v>
       </c>
       <c r="D72" s="35">
-        <f>SUM(D71:D71)</f>
+        <f t="shared" ref="D72:Q72" si="12">SUM(D71:D71)</f>
         <v>0</v>
       </c>
       <c r="E72" s="35">
-        <f>SUM(E71:E71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F72" s="35">
-        <f>SUM(F71:F71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G72" s="35">
-        <f>SUM(G71:G71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H72" s="35">
-        <f>SUM(H71:H71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I72" s="35">
-        <f>SUM(I71:I71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J72" s="35">
-        <f>SUM(J71:J71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K72" s="35">
-        <f>SUM(K71:K71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L72" s="35">
-        <f>SUM(L71:L71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M72" s="35">
-        <f>SUM(M71:M71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N72" s="35">
-        <f>SUM(N71:N71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O72" s="35">
-        <f>SUM(O71:O71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P72" s="36">
-        <f>SUM(P71:P71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q72" s="35">
-        <f>SUM(Q71:Q71)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,59 +4707,59 @@
         <v>TC-INCOME</v>
       </c>
       <c r="D76" s="35">
-        <f>SUM(D75:D75)</f>
+        <f t="shared" ref="D76:Q76" si="13">SUM(D75:D75)</f>
         <v>0</v>
       </c>
       <c r="E76" s="35">
-        <f>SUM(E75:E75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F76" s="35">
-        <f>SUM(F75:F75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G76" s="35">
-        <f>SUM(G75:G75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H76" s="35">
-        <f>SUM(H75:H75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I76" s="35">
-        <f>SUM(I75:I75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J76" s="35">
-        <f>SUM(J75:J75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K76" s="35">
-        <f>SUM(K75:K75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L76" s="35">
-        <f>SUM(L75:L75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M76" s="35">
-        <f>SUM(M75:M75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N76" s="35">
-        <f>SUM(N75:N75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O76" s="35">
-        <f>SUM(O75:O75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P76" s="36">
-        <f>SUM(P75:P75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q76" s="35">
-        <f>SUM(Q75:Q75)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4963,59 +4963,59 @@
         <v>TC-COSTAJ</v>
       </c>
       <c r="D82" s="40">
-        <f>SUM(D79:D81)*-1</f>
+        <f t="shared" ref="D82:Q82" si="14">SUM(D79:D81)*-1</f>
         <v>0</v>
       </c>
       <c r="E82" s="40">
-        <f>SUM(E79:E81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F82" s="40">
-        <f>SUM(F79:F81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G82" s="40">
-        <f>SUM(G79:G81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H82" s="40">
-        <f>SUM(H79:H81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I82" s="40">
-        <f>SUM(I79:I81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J82" s="40">
-        <f>SUM(J79:J81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K82" s="40">
-        <f>SUM(K79:K81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L82" s="40">
-        <f>SUM(L79:L81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M82" s="40">
-        <f>SUM(M79:M81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82" s="40">
-        <f>SUM(N79:N81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O82" s="40">
-        <f>SUM(O79:O81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P82" s="41">
-        <f>SUM(P79:P81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q82" s="40">
-        <f>SUM(Q79:Q81)*-1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5219,59 +5219,59 @@
         <v>TC-SALESAJ</v>
       </c>
       <c r="D88" s="35">
-        <f>SUM(D85:D87)</f>
+        <f t="shared" ref="D88:Q88" si="15">SUM(D85:D87)</f>
         <v>0</v>
       </c>
       <c r="E88" s="35">
-        <f>SUM(E85:E87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F88" s="35">
-        <f>SUM(F85:F87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G88" s="35">
-        <f>SUM(G85:G87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H88" s="35">
-        <f>SUM(H85:H87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I88" s="35">
-        <f>SUM(I85:I87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J88" s="35">
-        <f>SUM(J85:J87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K88" s="35">
-        <f>SUM(K85:K87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L88" s="35">
-        <f>SUM(L85:L87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M88" s="35">
-        <f>SUM(M85:M87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N88" s="35">
-        <f>SUM(N85:N87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O88" s="35">
-        <f>SUM(O85:O87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P88" s="36">
-        <f>SUM(P85:P87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q88" s="35">
-        <f>SUM(Q85:Q87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5424,59 +5424,59 @@
         <v>TC-PROPI</v>
       </c>
       <c r="D93" s="35">
-        <f>SUM(D91:D92)</f>
+        <f t="shared" ref="D93:Q93" si="16">SUM(D91:D92)</f>
         <v>0</v>
       </c>
       <c r="E93" s="35">
-        <f>SUM(E91:E92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F93" s="35">
-        <f>SUM(F91:F92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G93" s="35">
-        <f>SUM(G91:G92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H93" s="35">
-        <f>SUM(H91:H92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I93" s="35">
-        <f>SUM(I91:I92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J93" s="35">
-        <f>SUM(J91:J92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K93" s="35">
-        <f>SUM(K91:K92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L93" s="35">
-        <f>SUM(L91:L92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M93" s="35">
-        <f>SUM(M91:M92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N93" s="35">
-        <f>SUM(N91:N92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O93" s="35">
-        <f>SUM(O91:O92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P93" s="36">
-        <f>SUM(P91:P92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q93" s="35">
-        <f>SUM(Q91:Q92)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5578,59 +5578,59 @@
         <v>TC-PROPE</v>
       </c>
       <c r="D97" s="40">
-        <f>SUM(D96:D96)*-1</f>
+        <f t="shared" ref="D97:Q97" si="17">SUM(D96:D96)*-1</f>
         <v>0</v>
       </c>
       <c r="E97" s="40">
-        <f>SUM(E96:E96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F97" s="40">
-        <f>SUM(F96:F96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G97" s="40">
-        <f>SUM(G96:G96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H97" s="40">
-        <f>SUM(H96:H96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I97" s="40">
-        <f>SUM(I96:I96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J97" s="40">
-        <f>SUM(J96:J96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K97" s="40">
-        <f>SUM(K96:K96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L97" s="40">
-        <f>SUM(L96:L96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M97" s="40">
-        <f>SUM(M96:M96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N97" s="40">
-        <f>SUM(N96:N96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O97" s="40">
-        <f>SUM(O96:O96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P97" s="41">
-        <f>SUM(P96:P96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q97" s="40">
-        <f>SUM(Q96:Q96)*-1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5662,59 +5662,59 @@
         <v>20</v>
       </c>
       <c r="D100" s="4">
-        <f>D8</f>
+        <f t="shared" ref="D100:Q100" si="18">D8</f>
         <v>19042.66</v>
       </c>
       <c r="E100" s="4">
-        <f>E8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F100" s="4">
-        <f>F8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G100" s="4">
-        <f>G8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f>H8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I100" s="4">
-        <f>I8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J100" s="4">
-        <f>J8</f>
+        <f t="shared" si="18"/>
         <v>-958.34</v>
       </c>
       <c r="K100" s="4">
-        <f>K8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L100" s="4">
-        <f>L8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M100" s="4">
-        <f>M8</f>
+        <f t="shared" si="18"/>
         <v>-958.34</v>
       </c>
       <c r="N100" s="4">
-        <f>N8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O100" s="4">
-        <f>O8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P100" s="5">
-        <f>P8</f>
+        <f t="shared" si="18"/>
         <v>17125.98</v>
       </c>
       <c r="Q100" s="6">
-        <f>Q8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5726,59 +5726,59 @@
         <v>25</v>
       </c>
       <c r="D101" s="4">
-        <f>D15</f>
+        <f t="shared" ref="D101:Q101" si="19">D15</f>
         <v>0</v>
       </c>
       <c r="E101" s="4">
-        <f>E15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F101" s="4">
-        <f>F15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G101" s="4">
-        <f>G15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f>H15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I101" s="4">
-        <f>I15</f>
+        <f t="shared" si="19"/>
         <v>821.67</v>
       </c>
       <c r="J101" s="4">
-        <f>J15</f>
+        <f t="shared" si="19"/>
         <v>721.02499999999998</v>
       </c>
       <c r="K101" s="4">
-        <f>K15</f>
+        <f t="shared" si="19"/>
         <v>469.38</v>
       </c>
       <c r="L101" s="4">
-        <f>L15</f>
+        <f t="shared" si="19"/>
         <v>354.74</v>
       </c>
       <c r="M101" s="4">
-        <f>M15</f>
+        <f t="shared" si="19"/>
         <v>686.21</v>
       </c>
       <c r="N101" s="4">
-        <f>N15</f>
+        <f t="shared" si="19"/>
         <v>1460.83</v>
       </c>
       <c r="O101" s="4">
-        <f>O15</f>
+        <f t="shared" si="19"/>
         <v>3237.7</v>
       </c>
       <c r="P101" s="5">
-        <f>P15</f>
+        <f t="shared" si="19"/>
         <v>7751.5549999999994</v>
       </c>
       <c r="Q101" s="6">
-        <f>Q15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5790,59 +5790,59 @@
         <v>34</v>
       </c>
       <c r="D102" s="4">
-        <f>D24</f>
+        <f t="shared" ref="D102:Q102" si="20">D24</f>
         <v>0</v>
       </c>
       <c r="E102" s="4">
-        <f>E24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F102" s="4">
-        <f>F24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G102" s="4">
-        <f>G24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f>H24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I102" s="4">
-        <f>I24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J102" s="4">
-        <f>J24</f>
+        <f t="shared" si="20"/>
         <v>-46.875</v>
       </c>
       <c r="K102" s="4">
-        <f>K24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L102" s="4">
-        <f>L24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M102" s="4">
-        <f>M24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N102" s="4">
-        <f>N24</f>
+        <f t="shared" si="20"/>
         <v>-1070.83</v>
       </c>
       <c r="O102" s="4">
-        <f>O24</f>
+        <f t="shared" si="20"/>
         <v>-833.33</v>
       </c>
       <c r="P102" s="5">
-        <f>P24</f>
+        <f t="shared" si="20"/>
         <v>-1951.0349999999999</v>
       </c>
       <c r="Q102" s="6">
-        <f>Q24</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5854,59 +5854,59 @@
         <v>47</v>
       </c>
       <c r="D103" s="4">
-        <f>D33</f>
+        <f t="shared" ref="D103:Q103" si="21">D33</f>
         <v>0</v>
       </c>
       <c r="E103" s="4">
-        <f>E33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F103" s="4">
-        <f>F33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G103" s="4">
-        <f>G33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f>H33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I103" s="4">
-        <f>I33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J103" s="4">
-        <f>J33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K103" s="4">
-        <f>K33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L103" s="4">
-        <f>L33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M103" s="4">
-        <f>M33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N103" s="4">
-        <f>N33</f>
+        <f t="shared" si="21"/>
         <v>-550</v>
       </c>
       <c r="O103" s="4">
-        <f>O33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P103" s="5">
-        <f>P33</f>
+        <f t="shared" si="21"/>
         <v>-550</v>
       </c>
       <c r="Q103" s="6">
-        <f>Q33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -5918,59 +5918,59 @@
         <v>60</v>
       </c>
       <c r="D104" s="4">
-        <f>D39</f>
+        <f t="shared" ref="D104:Q104" si="22">D39</f>
         <v>0</v>
       </c>
       <c r="E104" s="4">
-        <f>E39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F104" s="4">
-        <f>F39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G104" s="4">
-        <f>G39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f>H39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I104" s="4">
-        <f>I39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <f>J39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K104" s="4">
-        <f>K39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L104" s="4">
-        <f>L39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M104" s="4">
-        <f>M39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N104" s="4">
-        <f>N39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O104" s="4">
-        <f>O39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P104" s="5">
-        <f>P39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q104" s="6">
-        <f>Q39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -5982,59 +5982,59 @@
         <v>67</v>
       </c>
       <c r="D105" s="4">
-        <f>D45</f>
+        <f t="shared" ref="D105:Q105" si="23">D45</f>
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <f>E45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F105" s="4">
-        <f>F45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f>G45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f>H45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I105" s="4">
-        <f>I45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J105" s="4">
-        <f>J45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K105" s="4">
-        <f>K45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <f>L45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M105" s="4">
-        <f>M45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N105" s="4">
-        <f>N45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O105" s="4">
-        <f>O45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P105" s="5">
-        <f>P45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q105" s="6">
-        <f>Q45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -6046,59 +6046,59 @@
         <v>74</v>
       </c>
       <c r="D106" s="4">
-        <f>D50</f>
+        <f t="shared" ref="D106:Q106" si="24">D50</f>
         <v>0</v>
       </c>
       <c r="E106" s="4">
-        <f>E50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F106" s="4">
-        <f>F50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G106" s="4">
-        <f>G50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f>H50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I106" s="4">
-        <f>I50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J106" s="4">
-        <f>J50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K106" s="4">
-        <f>K50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L106" s="4">
-        <f>L50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M106" s="4">
-        <f>M50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N106" s="4">
-        <f>N50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O106" s="4">
-        <f>O50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P106" s="5">
-        <f>P50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q106" s="6">
-        <f>Q50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -6110,59 +6110,59 @@
         <v>79</v>
       </c>
       <c r="D107" s="4">
-        <f>D55</f>
+        <f t="shared" ref="D107:Q107" si="25">D55</f>
         <v>0</v>
       </c>
       <c r="E107" s="4">
-        <f>E55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F107" s="4">
-        <f>F55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G107" s="4">
-        <f>G55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f>H55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I107" s="4">
-        <f>I55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J107" s="4">
-        <f>J55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K107" s="4">
-        <f>K55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L107" s="4">
-        <f>L55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M107" s="4">
-        <f>M55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N107" s="4">
-        <f>N55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O107" s="4">
-        <f>O55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P107" s="5">
-        <f>P55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q107" s="6">
-        <f>Q55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -6174,59 +6174,59 @@
         <v>84</v>
       </c>
       <c r="D108" s="4">
-        <f>D68</f>
+        <f t="shared" ref="D108:Q108" si="26">D68</f>
         <v>0</v>
       </c>
       <c r="E108" s="4">
-        <f>E68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F108" s="4">
-        <f>F68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G108" s="4">
-        <f>G68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f>H68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I108" s="4">
-        <f>I68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J108" s="4">
-        <f>J68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K108" s="4">
-        <f>K68</f>
+        <f t="shared" si="26"/>
         <v>-12.5</v>
       </c>
       <c r="L108" s="4">
-        <f>L68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M108" s="4">
-        <f>M68</f>
+        <f t="shared" si="26"/>
         <v>-16.670000000000002</v>
       </c>
       <c r="N108" s="4">
-        <f>N68</f>
+        <f t="shared" si="26"/>
         <v>-125</v>
       </c>
       <c r="O108" s="4">
-        <f>O68</f>
+        <f t="shared" si="26"/>
         <v>-1666.67</v>
       </c>
       <c r="P108" s="5">
-        <f>P68</f>
+        <f t="shared" si="26"/>
         <v>-1820.8400000000001</v>
       </c>
       <c r="Q108" s="6">
-        <f>Q68</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6238,59 +6238,59 @@
         <v>105</v>
       </c>
       <c r="D109" s="4">
-        <f>D72</f>
+        <f t="shared" ref="D109:Q109" si="27">D72</f>
         <v>0</v>
       </c>
       <c r="E109" s="4">
-        <f>E72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F109" s="4">
-        <f>F72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G109" s="4">
-        <f>G72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f>H72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I109" s="4">
-        <f>I72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J109" s="4">
-        <f>J72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K109" s="4">
-        <f>K72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L109" s="4">
-        <f>L72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M109" s="4">
-        <f>M72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N109" s="4">
-        <f>N72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O109" s="4">
-        <f>O72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P109" s="5">
-        <f>P72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q109" s="6">
-        <f>Q72</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6302,59 +6302,59 @@
         <v>108</v>
       </c>
       <c r="D110" s="4">
-        <f>D76</f>
+        <f t="shared" ref="D110:Q110" si="28">D76</f>
         <v>0</v>
       </c>
       <c r="E110" s="4">
-        <f>E76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F110" s="4">
-        <f>F76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G110" s="4">
-        <f>G76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f>H76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I110" s="4">
-        <f>I76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J110" s="4">
-        <f>J76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K110" s="4">
-        <f>K76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L110" s="4">
-        <f>L76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M110" s="4">
-        <f>M76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N110" s="4">
-        <f>N76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O110" s="4">
-        <f>O76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P110" s="5">
-        <f>P76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q110" s="6">
-        <f>Q76</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -6366,59 +6366,59 @@
         <v>111</v>
       </c>
       <c r="D111" s="4">
-        <f>D82</f>
+        <f t="shared" ref="D111:Q111" si="29">D82</f>
         <v>0</v>
       </c>
       <c r="E111" s="4">
-        <f>E82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F111" s="4">
-        <f>F82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G111" s="4">
-        <f>G82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f>H82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <f>I82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J111" s="4">
-        <f>J82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K111" s="4">
-        <f>K82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L111" s="4">
-        <f>L82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M111" s="4">
-        <f>M82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N111" s="4">
-        <f>N82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O111" s="4">
-        <f>O82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P111" s="5">
-        <f>P82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q111" s="6">
-        <f>Q82</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6430,59 +6430,59 @@
         <v>118</v>
       </c>
       <c r="D112" s="4">
-        <f>D88</f>
+        <f t="shared" ref="D112:Q112" si="30">D88</f>
         <v>0</v>
       </c>
       <c r="E112" s="4">
-        <f>E88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F112" s="4">
-        <f>F88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G112" s="4">
-        <f>G88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f>H88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
-        <f>I88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J112" s="4">
-        <f>J88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K112" s="4">
-        <f>K88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L112" s="4">
-        <f>L88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M112" s="4">
-        <f>M88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N112" s="4">
-        <f>N88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O112" s="4">
-        <f>O88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P112" s="5">
-        <f>P88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q112" s="6">
-        <f>Q88</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -6494,59 +6494,59 @@
         <v>125</v>
       </c>
       <c r="D113" s="4">
-        <f>D93</f>
+        <f t="shared" ref="D113:Q113" si="31">D93</f>
         <v>0</v>
       </c>
       <c r="E113" s="4">
-        <f>E93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F113" s="4">
-        <f>F93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G113" s="4">
-        <f>G93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f>H93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I113" s="4">
-        <f>I93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J113" s="4">
-        <f>J93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K113" s="4">
-        <f>K93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L113" s="4">
-        <f>L93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M113" s="4">
-        <f>M93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N113" s="4">
-        <f>N93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O113" s="4">
-        <f>O93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P113" s="5">
-        <f>P93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q113" s="6">
-        <f>Q93</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -6558,59 +6558,59 @@
         <v>130</v>
       </c>
       <c r="D114" s="4">
-        <f>D97</f>
+        <f t="shared" ref="D114:Q114" si="32">D97</f>
         <v>0</v>
       </c>
       <c r="E114" s="4">
-        <f>E97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F114" s="4">
-        <f>F97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G114" s="4">
-        <f>G97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f>H97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
-        <f>I97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J114" s="4">
-        <f>J97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K114" s="4">
-        <f>K97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L114" s="4">
-        <f>L97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M114" s="4">
-        <f>M97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N114" s="4">
-        <f>N97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O114" s="4">
-        <f>O97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P114" s="5">
-        <f>P97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q114" s="6">
-        <f>Q97</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -6620,59 +6620,59 @@
       </c>
       <c r="B115" s="47"/>
       <c r="D115" s="48">
-        <f>SUM(D100:D114)</f>
+        <f t="shared" ref="D115:Q115" si="33">SUM(D100:D114)</f>
         <v>19042.66</v>
       </c>
       <c r="E115" s="48">
-        <f>SUM(E100:E114)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F115" s="48">
-        <f>SUM(F100:F114)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G115" s="48">
-        <f>SUM(G100:G114)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H115" s="48">
-        <f>SUM(H100:H114)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I115" s="48">
-        <f>SUM(I100:I114)</f>
+        <f t="shared" si="33"/>
         <v>821.67</v>
       </c>
       <c r="J115" s="48">
-        <f>SUM(J100:J114)</f>
+        <f t="shared" si="33"/>
         <v>-284.19000000000005</v>
       </c>
       <c r="K115" s="48">
-        <f>SUM(K100:K114)</f>
+        <f t="shared" si="33"/>
         <v>456.88</v>
       </c>
       <c r="L115" s="48">
-        <f>SUM(L100:L114)</f>
+        <f t="shared" si="33"/>
         <v>354.74</v>
       </c>
       <c r="M115" s="48">
-        <f>SUM(M100:M114)</f>
+        <f t="shared" si="33"/>
         <v>-288.8</v>
       </c>
       <c r="N115" s="48">
-        <f>SUM(N100:N114)</f>
+        <f t="shared" si="33"/>
         <v>-285</v>
       </c>
       <c r="O115" s="48">
-        <f>SUM(O100:O114)</f>
+        <f t="shared" si="33"/>
         <v>737.69999999999982</v>
       </c>
       <c r="P115" s="49">
-        <f>SUM(P100:P114)</f>
+        <f t="shared" si="33"/>
         <v>20555.66</v>
       </c>
       <c r="Q115" s="50">
-        <f>SUM(Q100:Q114)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -6825,59 +6825,59 @@
         <v>TC-LIAB</v>
       </c>
       <c r="D120" s="40">
-        <f>SUM(D118:D119)*-1</f>
+        <f t="shared" ref="D120:Q120" si="34">SUM(D118:D119)*-1</f>
         <v>-20001</v>
       </c>
       <c r="E120" s="40">
-        <f>SUM(E118:E119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F120" s="40">
-        <f>SUM(F118:F119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G120" s="40">
-        <f>SUM(G118:G119)*-1</f>
+        <f t="shared" si="34"/>
         <v>833.34</v>
       </c>
       <c r="H120" s="40">
-        <f>SUM(H118:H119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I120" s="40">
-        <f>SUM(I118:I119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J120" s="40">
-        <f>SUM(J118:J119)*-1</f>
+        <f t="shared" si="34"/>
         <v>833.34</v>
       </c>
       <c r="K120" s="40">
-        <f>SUM(K118:K119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L120" s="40">
-        <f>SUM(L118:L119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M120" s="40">
-        <f>SUM(M118:M119)*-1</f>
+        <f t="shared" si="34"/>
         <v>833.34</v>
       </c>
       <c r="N120" s="40">
-        <f>SUM(N118:N119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O120" s="40">
-        <f>SUM(O118:O119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P120" s="41">
-        <f>SUM(P118:P119)*-1</f>
+        <f t="shared" si="34"/>
         <v>-17500.98</v>
       </c>
       <c r="Q120" s="40">
-        <f>SUM(Q118:Q119)*-1</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -6979,59 +6979,59 @@
         <v>TC-ASSETNP</v>
       </c>
       <c r="D124" s="35">
-        <f>SUM(D123:D123)</f>
+        <f t="shared" ref="D124:Q124" si="35">SUM(D123:D123)</f>
         <v>0</v>
       </c>
       <c r="E124" s="35">
-        <f>SUM(E123:E123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F124" s="35">
-        <f>SUM(F123:F123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G124" s="35">
-        <f>SUM(G123:G123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H124" s="35">
-        <f>SUM(H123:H123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I124" s="35">
-        <f>SUM(I123:I123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J124" s="35">
-        <f>SUM(J123:J123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K124" s="35">
-        <f>SUM(K123:K123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L124" s="35">
-        <f>SUM(L123:L123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M124" s="35">
-        <f>SUM(M123:M123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N124" s="35">
-        <f>SUM(N123:N123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O124" s="35">
-        <f>SUM(O123:O123)</f>
+        <f t="shared" si="35"/>
         <v>1875.25</v>
       </c>
       <c r="P124" s="36">
-        <f>SUM(P123:P123)</f>
+        <f t="shared" si="35"/>
         <v>1875.25</v>
       </c>
       <c r="Q124" s="35">
-        <f>SUM(Q123:Q123)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -7133,59 +7133,59 @@
         <v>TC-ASSETGP</v>
       </c>
       <c r="D128" s="35">
-        <f>SUM(D127:D127)</f>
+        <f t="shared" ref="D128:Q128" si="36">SUM(D127:D127)</f>
         <v>0</v>
       </c>
       <c r="E128" s="35">
-        <f>SUM(E127:E127)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F128" s="35">
-        <f>SUM(F127:F127)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G128" s="35">
-        <f>SUM(G127:G127)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H128" s="35">
-        <f>SUM(H127:H127)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I128" s="35">
-        <f>SUM(I127:I127)</f>
+        <f t="shared" si="36"/>
         <v>1250</v>
       </c>
       <c r="J128" s="35">
-        <f>SUM(J127:J127)</f>
+        <f t="shared" si="36"/>
         <v>-250</v>
       </c>
       <c r="K128" s="35">
-        <f>SUM(K127:K127)</f>
+        <f t="shared" si="36"/>
         <v>302</v>
       </c>
       <c r="L128" s="35">
-        <f>SUM(L127:L127)</f>
+        <f t="shared" si="36"/>
         <v>-125</v>
       </c>
       <c r="M128" s="35">
-        <f>SUM(M127:M127)</f>
+        <f t="shared" si="36"/>
         <v>1600</v>
       </c>
       <c r="N128" s="35">
-        <f>SUM(N127:N127)</f>
+        <f t="shared" si="36"/>
         <v>-632.74</v>
       </c>
       <c r="O128" s="35">
-        <f>SUM(O127:O127)</f>
+        <f t="shared" si="36"/>
         <v>135.26</v>
       </c>
       <c r="P128" s="36">
-        <f>SUM(P127:P127)</f>
+        <f t="shared" si="36"/>
         <v>2279.5200000000004</v>
       </c>
       <c r="Q128" s="35">
-        <f>SUM(Q127:Q127)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -7287,59 +7287,59 @@
         <v>TC-ASSETAJ</v>
       </c>
       <c r="D132" s="40">
-        <f>SUM(D131:D131)*-1</f>
+        <f t="shared" ref="D132:Q132" si="37">SUM(D131:D131)*-1</f>
         <v>0</v>
       </c>
       <c r="E132" s="40">
-        <f>SUM(E131:E131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F132" s="40">
-        <f>SUM(F131:F131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G132" s="40">
-        <f>SUM(G131:G131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H132" s="40">
-        <f>SUM(H131:H131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I132" s="40">
-        <f>SUM(I131:I131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J132" s="40">
-        <f>SUM(J131:J131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K132" s="40">
-        <f>SUM(K131:K131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L132" s="40">
-        <f>SUM(L131:L131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M132" s="40">
-        <f>SUM(M131:M131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N132" s="40">
-        <f>SUM(N131:N131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O132" s="40">
-        <f>SUM(O131:O131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P132" s="41">
-        <f>SUM(P131:P131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q132" s="40">
-        <f>SUM(Q131:Q131)*-1</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -7371,59 +7371,59 @@
         <v>150</v>
       </c>
       <c r="D135" s="4">
-        <f>D120</f>
+        <f t="shared" ref="D135:Q135" si="38">D120</f>
         <v>-20001</v>
       </c>
       <c r="E135" s="4">
-        <f>E120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F135" s="4">
-        <f>F120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G135" s="4">
-        <f>G120</f>
+        <f t="shared" si="38"/>
         <v>833.34</v>
       </c>
       <c r="H135" s="4">
-        <f>H120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I135" s="4">
-        <f>I120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J135" s="4">
-        <f>J120</f>
+        <f t="shared" si="38"/>
         <v>833.34</v>
       </c>
       <c r="K135" s="4">
-        <f>K120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L135" s="4">
-        <f>L120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M135" s="4">
-        <f>M120</f>
+        <f t="shared" si="38"/>
         <v>833.34</v>
       </c>
       <c r="N135" s="4">
-        <f>N120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O135" s="4">
-        <f>O120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P135" s="5">
-        <f>P120</f>
+        <f t="shared" si="38"/>
         <v>-17500.98</v>
       </c>
       <c r="Q135" s="6">
-        <f>Q120</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -7435,59 +7435,59 @@
         <v>155</v>
       </c>
       <c r="D136" s="4">
-        <f>D124</f>
+        <f t="shared" ref="D136:Q136" si="39">D124</f>
         <v>0</v>
       </c>
       <c r="E136" s="4">
-        <f>E124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F136" s="4">
-        <f>F124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G136" s="4">
-        <f>G124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H136" s="4">
-        <f>H124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I136" s="4">
-        <f>I124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J136" s="4">
-        <f>J124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K136" s="4">
-        <f>K124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L136" s="4">
-        <f>L124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M136" s="4">
-        <f>M124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N136" s="4">
-        <f>N124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O136" s="4">
-        <f>O124</f>
+        <f t="shared" si="39"/>
         <v>1875.25</v>
       </c>
       <c r="P136" s="5">
-        <f>P124</f>
+        <f t="shared" si="39"/>
         <v>1875.25</v>
       </c>
       <c r="Q136" s="6">
-        <f>Q124</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -7499,59 +7499,59 @@
         <v>158</v>
       </c>
       <c r="D137" s="4">
-        <f>D128</f>
+        <f t="shared" ref="D137:Q137" si="40">D128</f>
         <v>0</v>
       </c>
       <c r="E137" s="4">
-        <f>E128</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F137" s="4">
-        <f>F128</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G137" s="4">
-        <f>G128</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H137" s="4">
-        <f>H128</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I137" s="4">
-        <f>I128</f>
+        <f t="shared" si="40"/>
         <v>1250</v>
       </c>
       <c r="J137" s="4">
-        <f>J128</f>
+        <f t="shared" si="40"/>
         <v>-250</v>
       </c>
       <c r="K137" s="4">
-        <f>K128</f>
+        <f t="shared" si="40"/>
         <v>302</v>
       </c>
       <c r="L137" s="4">
-        <f>L128</f>
+        <f t="shared" si="40"/>
         <v>-125</v>
       </c>
       <c r="M137" s="4">
-        <f>M128</f>
+        <f t="shared" si="40"/>
         <v>1600</v>
       </c>
       <c r="N137" s="4">
-        <f>N128</f>
+        <f t="shared" si="40"/>
         <v>-632.74</v>
       </c>
       <c r="O137" s="4">
-        <f>O128</f>
+        <f t="shared" si="40"/>
         <v>135.26</v>
       </c>
       <c r="P137" s="5">
-        <f>P128</f>
+        <f t="shared" si="40"/>
         <v>2279.5200000000004</v>
       </c>
       <c r="Q137" s="6">
-        <f>Q128</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -7563,59 +7563,59 @@
         <v>161</v>
       </c>
       <c r="D138" s="4">
-        <f>D132</f>
+        <f t="shared" ref="D138:Q138" si="41">D132</f>
         <v>0</v>
       </c>
       <c r="E138" s="4">
-        <f>E132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F138" s="4">
-        <f>F132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G138" s="4">
-        <f>G132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H138" s="4">
-        <f>H132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I138" s="4">
-        <f>I132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J138" s="4">
-        <f>J132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K138" s="4">
-        <f>K132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L138" s="4">
-        <f>L132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M138" s="4">
-        <f>M132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N138" s="4">
-        <f>N132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O138" s="4">
-        <f>O132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P138" s="5">
-        <f>P132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q138" s="6">
-        <f>Q132</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -7625,59 +7625,59 @@
       </c>
       <c r="B139" s="47"/>
       <c r="D139" s="48">
-        <f>SUM(D135:D138)</f>
+        <f t="shared" ref="D139:Q139" si="42">SUM(D135:D138)</f>
         <v>-20001</v>
       </c>
       <c r="E139" s="48">
-        <f>SUM(E135:E138)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F139" s="48">
-        <f>SUM(F135:F138)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G139" s="48">
-        <f>SUM(G135:G138)</f>
+        <f t="shared" si="42"/>
         <v>833.34</v>
       </c>
       <c r="H139" s="48">
-        <f>SUM(H135:H138)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I139" s="48">
-        <f>SUM(I135:I138)</f>
+        <f t="shared" si="42"/>
         <v>1250</v>
       </c>
       <c r="J139" s="48">
-        <f>SUM(J135:J138)</f>
+        <f t="shared" si="42"/>
         <v>583.34</v>
       </c>
       <c r="K139" s="48">
-        <f>SUM(K135:K138)</f>
+        <f t="shared" si="42"/>
         <v>302</v>
       </c>
       <c r="L139" s="48">
-        <f>SUM(L135:L138)</f>
+        <f t="shared" si="42"/>
         <v>-125</v>
       </c>
       <c r="M139" s="48">
-        <f>SUM(M135:M138)</f>
+        <f t="shared" si="42"/>
         <v>2433.34</v>
       </c>
       <c r="N139" s="48">
-        <f>SUM(N135:N138)</f>
+        <f t="shared" si="42"/>
         <v>-632.74</v>
       </c>
       <c r="O139" s="48">
-        <f>SUM(O135:O138)</f>
+        <f t="shared" si="42"/>
         <v>2010.51</v>
       </c>
       <c r="P139" s="49">
-        <f>SUM(P135:P138)</f>
+        <f t="shared" si="42"/>
         <v>-13346.21</v>
       </c>
       <c r="Q139" s="50">
-        <f>SUM(Q135:Q138)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -7715,59 +7715,59 @@
         <v>AC12</v>
       </c>
       <c r="D142" s="4">
-        <f>D8+D15</f>
+        <f t="shared" ref="D142:Q142" si="43">D8+D15</f>
         <v>19042.66</v>
       </c>
       <c r="E142" s="4">
-        <f>E8+E15</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F142" s="4">
-        <f>F8+F15</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G142" s="4">
-        <f>G8+G15</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H142" s="4">
-        <f>H8+H15</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I142" s="4">
-        <f>I8+I15</f>
+        <f t="shared" si="43"/>
         <v>821.67</v>
       </c>
       <c r="J142" s="4">
-        <f>J8+J15</f>
+        <f t="shared" si="43"/>
         <v>-237.31500000000005</v>
       </c>
       <c r="K142" s="4">
-        <f>K8+K15</f>
+        <f t="shared" si="43"/>
         <v>469.38</v>
       </c>
       <c r="L142" s="4">
-        <f>L8+L15</f>
+        <f t="shared" si="43"/>
         <v>354.74</v>
       </c>
       <c r="M142" s="4">
-        <f>M8+M15</f>
+        <f t="shared" si="43"/>
         <v>-272.13</v>
       </c>
       <c r="N142" s="4">
-        <f>N8+N15</f>
+        <f t="shared" si="43"/>
         <v>1460.83</v>
       </c>
       <c r="O142" s="4">
-        <f>O8+O15</f>
+        <f t="shared" si="43"/>
         <v>3237.7</v>
       </c>
       <c r="P142" s="5">
-        <f>P8+P15</f>
+        <f t="shared" si="43"/>
         <v>24877.535</v>
       </c>
       <c r="Q142" s="6">
-        <f>Q8+Q15</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -7784,59 +7784,59 @@
         <v>AC24</v>
       </c>
       <c r="D143" s="4">
-        <f>D72</f>
+        <f t="shared" ref="D143:Q143" si="44">D72</f>
         <v>0</v>
       </c>
       <c r="E143" s="4">
-        <f>E72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F143" s="4">
-        <f>F72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G143" s="4">
-        <f>G72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H143" s="4">
-        <f>H72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I143" s="4">
-        <f>I72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J143" s="4">
-        <f>J72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K143" s="4">
-        <f>K72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L143" s="4">
-        <f>L72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M143" s="4">
-        <f>M72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N143" s="4">
-        <f>N72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O143" s="4">
-        <f>O72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P143" s="5">
-        <f>P72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q143" s="6">
-        <f>Q72</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -7853,59 +7853,59 @@
         <v>AC405</v>
       </c>
       <c r="D144" s="4">
-        <f>D128+D76+D93+D88</f>
+        <f t="shared" ref="D144:Q144" si="45">D128+D76+D93+D88</f>
         <v>0</v>
       </c>
       <c r="E144" s="4">
-        <f>E128+E76+E93+E88</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F144" s="4">
-        <f>F128+F76+F93+F88</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G144" s="4">
-        <f>G128+G76+G93+G88</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H144" s="4">
-        <f>H128+H76+H93+H88</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I144" s="4">
-        <f>I128+I76+I93+I88</f>
+        <f t="shared" si="45"/>
         <v>1250</v>
       </c>
       <c r="J144" s="4">
-        <f>J128+J76+J93+J88</f>
+        <f t="shared" si="45"/>
         <v>-250</v>
       </c>
       <c r="K144" s="4">
-        <f>K128+K76+K93+K88</f>
+        <f t="shared" si="45"/>
         <v>302</v>
       </c>
       <c r="L144" s="4">
-        <f>L128+L76+L93+L88</f>
+        <f t="shared" si="45"/>
         <v>-125</v>
       </c>
       <c r="M144" s="4">
-        <f>M128+M76+M93+M88</f>
+        <f t="shared" si="45"/>
         <v>1600</v>
       </c>
       <c r="N144" s="4">
-        <f>N128+N76+N93+N88</f>
+        <f t="shared" si="45"/>
         <v>-632.74</v>
       </c>
       <c r="O144" s="4">
-        <f>O128+O76+O93+O88</f>
+        <f t="shared" si="45"/>
         <v>135.26</v>
       </c>
       <c r="P144" s="5">
-        <f>P128+P76+P93+P88</f>
+        <f t="shared" si="45"/>
         <v>2279.5200000000004</v>
       </c>
       <c r="Q144" s="6">
-        <f>Q128+Q76+Q93+Q88</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -7922,59 +7922,59 @@
         <v>AC410</v>
       </c>
       <c r="D145" s="4">
-        <f>D33</f>
+        <f t="shared" ref="D145:Q145" si="46">D33</f>
         <v>0</v>
       </c>
       <c r="E145" s="4">
-        <f>E33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F145" s="4">
-        <f>F33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G145" s="4">
-        <f>G33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <f>H33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I145" s="4">
-        <f>I33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J145" s="4">
-        <f>J33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K145" s="4">
-        <f>K33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L145" s="4">
-        <f>L33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M145" s="4">
-        <f>M33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N145" s="4">
-        <f>N33</f>
+        <f t="shared" si="46"/>
         <v>-550</v>
       </c>
       <c r="O145" s="4">
-        <f>O33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P145" s="5">
-        <f>P33</f>
+        <f t="shared" si="46"/>
         <v>-550</v>
       </c>
       <c r="Q145" s="6">
-        <f>Q33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -7991,59 +7991,59 @@
         <v>AC415</v>
       </c>
       <c r="D146" s="4">
-        <f>D39</f>
+        <f t="shared" ref="D146:Q146" si="47">D39</f>
         <v>0</v>
       </c>
       <c r="E146" s="4">
-        <f>E39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F146" s="4">
-        <f>F39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G146" s="4">
-        <f>G39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <f>H39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I146" s="4">
-        <f>I39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J146" s="4">
-        <f>J39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K146" s="4">
-        <f>K39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L146" s="4">
-        <f>L39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M146" s="4">
-        <f>M39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N146" s="4">
-        <f>N39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O146" s="4">
-        <f>O39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P146" s="5">
-        <f>P39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q146" s="6">
-        <f>Q39</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -8060,59 +8060,59 @@
         <v>AC420</v>
       </c>
       <c r="D147" s="4">
-        <f>D132+D124+D120</f>
+        <f t="shared" ref="D147:Q147" si="48">D132+D124+D120</f>
         <v>-20001</v>
       </c>
       <c r="E147" s="4">
-        <f>E132+E124+E120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F147" s="4">
-        <f>F132+F124+F120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G147" s="4">
-        <f>G132+G124+G120</f>
+        <f t="shared" si="48"/>
         <v>833.34</v>
       </c>
       <c r="H147" s="4">
-        <f>H132+H124+H120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I147" s="4">
-        <f>I132+I124+I120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J147" s="4">
-        <f>J132+J124+J120</f>
+        <f t="shared" si="48"/>
         <v>833.34</v>
       </c>
       <c r="K147" s="4">
-        <f>K132+K124+K120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L147" s="4">
-        <f>L132+L124+L120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M147" s="4">
-        <f>M132+M124+M120</f>
+        <f t="shared" si="48"/>
         <v>833.34</v>
       </c>
       <c r="N147" s="4">
-        <f>N132+N124+N120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O147" s="4">
-        <f>O132+O124+O120</f>
+        <f t="shared" si="48"/>
         <v>1875.25</v>
       </c>
       <c r="P147" s="5">
-        <f>P132+P124+P120</f>
+        <f t="shared" si="48"/>
         <v>-15625.73</v>
       </c>
       <c r="Q147" s="6">
-        <f>Q132+Q124+Q120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,59 +8129,59 @@
         <v>AC425</v>
       </c>
       <c r="D148" s="4">
-        <f>D50+D24+D68+D82+D55+D97</f>
+        <f t="shared" ref="D148:Q148" si="49">D50+D24+D68+D82+D55+D97</f>
         <v>0</v>
       </c>
       <c r="E148" s="4">
-        <f>E50+E24+E68+E82+E55+E97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F148" s="4">
-        <f>F50+F24+F68+F82+F55+F97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G148" s="4">
-        <f>G50+G24+G68+G82+G55+G97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H148" s="4">
-        <f>H50+H24+H68+H82+H55+H97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I148" s="4">
-        <f>I50+I24+I68+I82+I55+I97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J148" s="4">
-        <f>J50+J24+J68+J82+J55+J97</f>
+        <f t="shared" si="49"/>
         <v>-46.875</v>
       </c>
       <c r="K148" s="4">
-        <f>K50+K24+K68+K82+K55+K97</f>
+        <f t="shared" si="49"/>
         <v>-12.5</v>
       </c>
       <c r="L148" s="4">
-        <f>L50+L24+L68+L82+L55+L97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M148" s="4">
-        <f>M50+M24+M68+M82+M55+M97</f>
+        <f t="shared" si="49"/>
         <v>-16.670000000000002</v>
       </c>
       <c r="N148" s="4">
-        <f>N50+N24+N68+N82+N55+N97</f>
+        <f t="shared" si="49"/>
         <v>-1195.83</v>
       </c>
       <c r="O148" s="4">
-        <f>O50+O24+O68+O82+O55+O97</f>
+        <f t="shared" si="49"/>
         <v>-2500</v>
       </c>
       <c r="P148" s="5">
-        <f>P50+P24+P68+P82+P55+P97</f>
+        <f t="shared" si="49"/>
         <v>-3771.875</v>
       </c>
       <c r="Q148" s="6">
-        <f>Q50+Q24+Q68+Q82+Q55+Q97</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -8198,59 +8198,59 @@
         <v>AC34</v>
       </c>
       <c r="D149" s="4">
-        <f>D161</f>
+        <f t="shared" ref="D149:Q149" si="50">D161</f>
         <v>0</v>
       </c>
       <c r="E149" s="4">
-        <f>E161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F149" s="4">
-        <f>F161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G149" s="4">
-        <f>G161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H149" s="4">
-        <f>H161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I149" s="4">
-        <f>I161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J149" s="4">
-        <f>J161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K149" s="4">
-        <f>K161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L149" s="4">
-        <f>L161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M149" s="4">
-        <f>M161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N149" s="4">
-        <f>N161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O149" s="4">
-        <f>O161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P149" s="5">
-        <f>P161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q149" s="6">
-        <f>Q161</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -8267,59 +8267,59 @@
         <v>TC-NP</v>
       </c>
       <c r="D150" s="4">
-        <f>D142+D143+D144+D145+D146+D147+D148</f>
+        <f t="shared" ref="D150:Q150" si="51">D142+D143+D144+D145+D146+D147+D148</f>
         <v>-958.34000000000015</v>
       </c>
       <c r="E150" s="4">
-        <f>E142+E143+E144+E145+E146+E147+E148</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F150" s="4">
-        <f>F142+F143+F144+F145+F146+F147+F148</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G150" s="4">
-        <f>G142+G143+G144+G145+G146+G147+G148</f>
+        <f t="shared" si="51"/>
         <v>833.34</v>
       </c>
       <c r="H150" s="4">
-        <f>H142+H143+H144+H145+H146+H147+H148</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I150" s="4">
-        <f>I142+I143+I144+I145+I146+I147+I148</f>
+        <f t="shared" si="51"/>
         <v>2071.67</v>
       </c>
       <c r="J150" s="4">
-        <f>J142+J143+J144+J145+J146+J147+J148</f>
+        <f t="shared" si="51"/>
         <v>299.14999999999998</v>
       </c>
       <c r="K150" s="4">
-        <f>K142+K143+K144+K145+K146+K147+K148</f>
+        <f t="shared" si="51"/>
         <v>758.88</v>
       </c>
       <c r="L150" s="4">
-        <f>L142+L143+L144+L145+L146+L147+L148</f>
+        <f t="shared" si="51"/>
         <v>229.74</v>
       </c>
       <c r="M150" s="4">
-        <f>M142+M143+M144+M145+M146+M147+M148</f>
+        <f t="shared" si="51"/>
         <v>2144.54</v>
       </c>
       <c r="N150" s="4">
-        <f>N142+N143+N144+N145+N146+N147+N148</f>
+        <f t="shared" si="51"/>
         <v>-917.74</v>
       </c>
       <c r="O150" s="4">
-        <f>O142+O143+O144+O145+O146+O147+O148</f>
+        <f t="shared" si="51"/>
         <v>2748.21</v>
       </c>
       <c r="P150" s="5">
-        <f>P142+P143+P144+P145+P146+P147+P148</f>
+        <f t="shared" si="51"/>
         <v>7209.4500000000007</v>
       </c>
       <c r="Q150" s="6">
-        <f>Q142+Q143+Q144+Q145+Q146+Q147+Q148</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -8336,59 +8336,59 @@
         <v>AC435</v>
       </c>
       <c r="D151" s="58">
-        <f>D149+D150</f>
+        <f t="shared" ref="D151:Q151" si="52">D149+D150</f>
         <v>-958.34000000000015</v>
       </c>
       <c r="E151" s="58">
-        <f>E149+E150</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F151" s="58">
-        <f>F149+F150</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G151" s="58">
-        <f>G149+G150</f>
+        <f t="shared" si="52"/>
         <v>833.34</v>
       </c>
       <c r="H151" s="58">
-        <f>H149+H150</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I151" s="58">
-        <f>I149+I150</f>
+        <f t="shared" si="52"/>
         <v>2071.67</v>
       </c>
       <c r="J151" s="58">
-        <f>J149+J150</f>
+        <f t="shared" si="52"/>
         <v>299.14999999999998</v>
       </c>
       <c r="K151" s="58">
-        <f>K149+K150</f>
+        <f t="shared" si="52"/>
         <v>758.88</v>
       </c>
       <c r="L151" s="58">
-        <f>L149+L150</f>
+        <f t="shared" si="52"/>
         <v>229.74</v>
       </c>
       <c r="M151" s="58">
-        <f>M149+M150</f>
+        <f t="shared" si="52"/>
         <v>2144.54</v>
       </c>
       <c r="N151" s="58">
-        <f>N149+N150</f>
+        <f t="shared" si="52"/>
         <v>-917.74</v>
       </c>
       <c r="O151" s="58">
-        <f>O149+O150</f>
+        <f t="shared" si="52"/>
         <v>2748.21</v>
       </c>
       <c r="P151" s="59">
-        <f>P149+P150</f>
+        <f t="shared" si="52"/>
         <v>7209.4500000000007</v>
       </c>
       <c r="Q151" s="60">
-        <f>Q149+Q150</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8541,59 +8541,59 @@
         <v>TC-TAXGD</v>
       </c>
       <c r="D156" s="40">
-        <f>SUM(D154:D155)*-1</f>
+        <f t="shared" ref="D156:Q156" si="53">SUM(D154:D155)*-1</f>
         <v>0</v>
       </c>
       <c r="E156" s="40">
-        <f>SUM(E154:E155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F156" s="40">
-        <f>SUM(F154:F155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G156" s="40">
-        <f>SUM(G154:G155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H156" s="40">
-        <f>SUM(H154:H155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I156" s="40">
-        <f>SUM(I154:I155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J156" s="40">
-        <f>SUM(J154:J155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K156" s="40">
-        <f>SUM(K154:K155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L156" s="40">
-        <f>SUM(L154:L155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M156" s="40">
-        <f>SUM(M154:M155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N156" s="40">
-        <f>SUM(N154:N155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O156" s="40">
-        <f>SUM(O154:O155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P156" s="41">
-        <f>SUM(P154:P155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q156" s="40">
-        <f>SUM(Q154:Q155)*-1</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -8746,59 +8746,59 @@
         <v>TC-TAXCO</v>
       </c>
       <c r="D161" s="40">
-        <f>SUM(D159:D160)*-1</f>
+        <f t="shared" ref="D161:Q161" si="54">SUM(D159:D160)*-1</f>
         <v>0</v>
       </c>
       <c r="E161" s="40">
-        <f>SUM(E159:E160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F161" s="40">
-        <f>SUM(F159:F160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G161" s="40">
-        <f>SUM(G159:G160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H161" s="40">
-        <f>SUM(H159:H160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I161" s="40">
-        <f>SUM(I159:I160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J161" s="40">
-        <f>SUM(J159:J160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K161" s="40">
-        <f>SUM(K159:K160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L161" s="40">
-        <f>SUM(L159:L160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M161" s="40">
-        <f>SUM(M159:M160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N161" s="40">
-        <f>SUM(N159:N160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O161" s="40">
-        <f>SUM(O159:O160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P161" s="41">
-        <f>SUM(P159:P160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q161" s="40">
-        <f>SUM(Q159:Q160)*-1</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -8830,59 +8830,59 @@
         <v>179</v>
       </c>
       <c r="D164" s="4">
-        <f>D156</f>
+        <f t="shared" ref="D164:Q164" si="55">D156</f>
         <v>0</v>
       </c>
       <c r="E164" s="4">
-        <f>E156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F164" s="4">
-        <f>F156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G164" s="4">
-        <f>G156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H164" s="4">
-        <f>H156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I164" s="4">
-        <f>I156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J164" s="4">
-        <f>J156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K164" s="4">
-        <f>K156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L164" s="4">
-        <f>L156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M164" s="4">
-        <f>M156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N164" s="4">
-        <f>N156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O164" s="4">
-        <f>O156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P164" s="5">
-        <f>P156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q164" s="6">
-        <f>Q156</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -8894,59 +8894,59 @@
         <v>182</v>
       </c>
       <c r="D165" s="4">
-        <f>D161</f>
+        <f t="shared" ref="D165:Q165" si="56">D161</f>
         <v>0</v>
       </c>
       <c r="E165" s="4">
-        <f>E161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F165" s="4">
-        <f>F161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G165" s="4">
-        <f>G161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H165" s="4">
-        <f>H161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I165" s="4">
-        <f>I161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="J165" s="4">
-        <f>J161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K165" s="4">
-        <f>K161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L165" s="4">
-        <f>L161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M165" s="4">
-        <f>M161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N165" s="4">
-        <f>N161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O165" s="4">
-        <f>O161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P165" s="5">
-        <f>P161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q165" s="6">
-        <f>Q161</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -8956,59 +8956,59 @@
       </c>
       <c r="B166" s="47"/>
       <c r="D166" s="48">
-        <f>SUM(D164:D165)</f>
+        <f t="shared" ref="D166:Q166" si="57">SUM(D164:D165)</f>
         <v>0</v>
       </c>
       <c r="E166" s="48">
-        <f>SUM(E164:E165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F166" s="48">
-        <f>SUM(F164:F165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G166" s="48">
-        <f>SUM(G164:G165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H166" s="48">
-        <f>SUM(H164:H165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I166" s="48">
-        <f>SUM(I164:I165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J166" s="48">
-        <f>SUM(J164:J165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="K166" s="48">
-        <f>SUM(K164:K165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L166" s="48">
-        <f>SUM(L164:L165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M166" s="48">
-        <f>SUM(M164:M165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N166" s="48">
-        <f>SUM(N164:N165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O166" s="48">
-        <f>SUM(O164:O165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="P166" s="49">
-        <f>SUM(P164:P165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q166" s="50">
-        <f>SUM(Q164:Q165)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -9046,59 +9046,59 @@
         <v>CP7</v>
       </c>
       <c r="D169" s="4">
-        <f>D8+D15</f>
+        <f t="shared" ref="D169:Q169" si="58">D8+D15</f>
         <v>19042.66</v>
       </c>
       <c r="E169" s="4">
-        <f>E8+E15</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F169" s="4">
-        <f>F8+F15</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G169" s="4">
-        <f>G8+G15</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H169" s="4">
-        <f>H8+H15</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I169" s="4">
-        <f>I8+I15</f>
+        <f t="shared" si="58"/>
         <v>821.67</v>
       </c>
       <c r="J169" s="4">
-        <f>J8+J15</f>
+        <f t="shared" si="58"/>
         <v>-237.31500000000005</v>
       </c>
       <c r="K169" s="4">
-        <f>K8+K15</f>
+        <f t="shared" si="58"/>
         <v>469.38</v>
       </c>
       <c r="L169" s="4">
-        <f>L8+L15</f>
+        <f t="shared" si="58"/>
         <v>354.74</v>
       </c>
       <c r="M169" s="4">
-        <f>M8+M15</f>
+        <f t="shared" si="58"/>
         <v>-272.13</v>
       </c>
       <c r="N169" s="4">
-        <f>N8+N15</f>
+        <f t="shared" si="58"/>
         <v>1460.83</v>
       </c>
       <c r="O169" s="4">
-        <f>O8+O15</f>
+        <f t="shared" si="58"/>
         <v>3237.7</v>
       </c>
       <c r="P169" s="5">
-        <f>P8+P15</f>
+        <f t="shared" si="58"/>
         <v>24877.535</v>
       </c>
       <c r="Q169" s="6">
-        <f>Q8+Q15</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -9115,59 +9115,59 @@
         <v>CP8</v>
       </c>
       <c r="D170" s="4">
-        <f>D128+D124+D33+D120+D45+D161+D39</f>
+        <f t="shared" ref="D170:Q170" si="59">D128+D124+D33+D120+D45+D161+D39</f>
         <v>-20001</v>
       </c>
       <c r="E170" s="4">
-        <f>E128+E124+E33+E120+E45+E161+E39</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F170" s="4">
-        <f>F128+F124+F33+F120+F45+F161+F39</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G170" s="4">
-        <f>G128+G124+G33+G120+G45+G161+G39</f>
+        <f t="shared" si="59"/>
         <v>833.34</v>
       </c>
       <c r="H170" s="4">
-        <f>H128+H124+H33+H120+H45+H161+H39</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I170" s="4">
-        <f>I128+I124+I33+I120+I45+I161+I39</f>
+        <f t="shared" si="59"/>
         <v>1250</v>
       </c>
       <c r="J170" s="4">
-        <f>J128+J124+J33+J120+J45+J161+J39</f>
+        <f t="shared" si="59"/>
         <v>583.34</v>
       </c>
       <c r="K170" s="4">
-        <f>K128+K124+K33+K120+K45+K161+K39</f>
+        <f t="shared" si="59"/>
         <v>302</v>
       </c>
       <c r="L170" s="4">
-        <f>L128+L124+L33+L120+L45+L161+L39</f>
+        <f t="shared" si="59"/>
         <v>-125</v>
       </c>
       <c r="M170" s="4">
-        <f>M128+M124+M33+M120+M45+M161+M39</f>
+        <f t="shared" si="59"/>
         <v>2433.34</v>
       </c>
       <c r="N170" s="4">
-        <f>N128+N124+N33+N120+N45+N161+N39</f>
+        <f t="shared" si="59"/>
         <v>-1182.74</v>
       </c>
       <c r="O170" s="4">
-        <f>O128+O124+O33+O120+O45+O161+O39</f>
+        <f t="shared" si="59"/>
         <v>2010.51</v>
       </c>
       <c r="P170" s="5">
-        <f>P128+P124+P33+P120+P45+P161+P39</f>
+        <f t="shared" si="59"/>
         <v>-13896.21</v>
       </c>
       <c r="Q170" s="6">
-        <f>Q128+Q124+Q33+Q120+Q45+Q161+Q39</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -9184,59 +9184,59 @@
         <v>CP14-39</v>
       </c>
       <c r="D171" s="4">
-        <f>D169+D170</f>
+        <f t="shared" ref="D171:Q171" si="60">D169+D170</f>
         <v>-958.34000000000015</v>
       </c>
       <c r="E171" s="4">
-        <f>E169+E170</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F171" s="4">
-        <f>F169+F170</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G171" s="4">
-        <f>G169+G170</f>
+        <f t="shared" si="60"/>
         <v>833.34</v>
       </c>
       <c r="H171" s="4">
-        <f>H169+H170</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I171" s="4">
-        <f>I169+I170</f>
+        <f t="shared" si="60"/>
         <v>2071.67</v>
       </c>
       <c r="J171" s="4">
-        <f>J169+J170</f>
+        <f t="shared" si="60"/>
         <v>346.02499999999998</v>
       </c>
       <c r="K171" s="4">
-        <f>K169+K170</f>
+        <f t="shared" si="60"/>
         <v>771.38</v>
       </c>
       <c r="L171" s="4">
-        <f>L169+L170</f>
+        <f t="shared" si="60"/>
         <v>229.74</v>
       </c>
       <c r="M171" s="4">
-        <f>M169+M170</f>
+        <f t="shared" si="60"/>
         <v>2161.21</v>
       </c>
       <c r="N171" s="4">
-        <f>N169+N170</f>
+        <f t="shared" si="60"/>
         <v>278.08999999999992</v>
       </c>
       <c r="O171" s="4">
-        <f>O169+O170</f>
+        <f t="shared" si="60"/>
         <v>5248.21</v>
       </c>
       <c r="P171" s="5">
-        <f>P169+P170</f>
+        <f t="shared" si="60"/>
         <v>10981.325000000001</v>
       </c>
       <c r="Q171" s="6">
-        <f>Q169+Q170</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
@@ -9253,59 +9253,59 @@
         <v>CP40</v>
       </c>
       <c r="D172" s="4">
-        <f>D50+D24+D68+D55</f>
+        <f t="shared" ref="D172:Q172" si="61">D50+D24+D68+D55</f>
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <f>E50+E24+E68+E55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F172" s="4">
-        <f>F50+F24+F68+F55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G172" s="4">
-        <f>G50+G24+G68+G55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H172" s="4">
-        <f>H50+H24+H68+H55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I172" s="4">
-        <f>I50+I24+I68+I55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J172" s="4">
-        <f>J50+J24+J68+J55</f>
+        <f t="shared" si="61"/>
         <v>-46.875</v>
       </c>
       <c r="K172" s="4">
-        <f>K50+K24+K68+K55</f>
+        <f t="shared" si="61"/>
         <v>-12.5</v>
       </c>
       <c r="L172" s="4">
-        <f>L50+L24+L68+L55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M172" s="4">
-        <f>M50+M24+M68+M55</f>
+        <f t="shared" si="61"/>
         <v>-16.670000000000002</v>
       </c>
       <c r="N172" s="4">
-        <f>N50+N24+N68+N55</f>
+        <f t="shared" si="61"/>
         <v>-1195.83</v>
       </c>
       <c r="O172" s="4">
-        <f>O50+O24+O68+O55</f>
+        <f t="shared" si="61"/>
         <v>-2500</v>
       </c>
       <c r="P172" s="5">
-        <f>P50+P24+P68+P55</f>
+        <f t="shared" si="61"/>
         <v>-3771.875</v>
       </c>
       <c r="Q172" s="6">
-        <f>Q50+Q24+Q68+Q55</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -9322,59 +9322,59 @@
         <v>CP500</v>
       </c>
       <c r="D173" s="4">
-        <f>D171+D172</f>
+        <f t="shared" ref="D173:Q173" si="62">D171+D172</f>
         <v>-958.34000000000015</v>
       </c>
       <c r="E173" s="4">
-        <f>E171+E172</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F173" s="4">
-        <f>F171+F172</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G173" s="4">
-        <f>G171+G172</f>
+        <f t="shared" si="62"/>
         <v>833.34</v>
       </c>
       <c r="H173" s="4">
-        <f>H171+H172</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I173" s="4">
-        <f>I171+I172</f>
+        <f t="shared" si="62"/>
         <v>2071.67</v>
       </c>
       <c r="J173" s="4">
-        <f>J171+J172</f>
+        <f t="shared" si="62"/>
         <v>299.14999999999998</v>
       </c>
       <c r="K173" s="4">
-        <f>K171+K172</f>
+        <f t="shared" si="62"/>
         <v>758.88</v>
       </c>
       <c r="L173" s="4">
-        <f>L171+L172</f>
+        <f t="shared" si="62"/>
         <v>229.74</v>
       </c>
       <c r="M173" s="4">
-        <f>M171+M172</f>
+        <f t="shared" si="62"/>
         <v>2144.54</v>
       </c>
       <c r="N173" s="4">
-        <f>N171+N172</f>
+        <f t="shared" si="62"/>
         <v>-917.74</v>
       </c>
       <c r="O173" s="4">
-        <f>O171+O172</f>
+        <f t="shared" si="62"/>
         <v>2748.21</v>
       </c>
       <c r="P173" s="5">
-        <f>P171+P172</f>
+        <f t="shared" si="62"/>
         <v>7209.4500000000007</v>
       </c>
       <c r="Q173" s="6">
-        <f>Q171+Q172</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -9391,59 +9391,59 @@
         <v>CP44</v>
       </c>
       <c r="D174" s="4">
-        <f>D173+D76</f>
+        <f t="shared" ref="D174:Q174" si="63">D173+D76</f>
         <v>-958.34000000000015</v>
       </c>
       <c r="E174" s="4">
-        <f>E173+E76</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F174" s="4">
-        <f>F173+F76</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G174" s="4">
-        <f>G173+G76</f>
+        <f t="shared" si="63"/>
         <v>833.34</v>
       </c>
       <c r="H174" s="4">
-        <f>H173+H76</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I174" s="4">
-        <f>I173+I76</f>
+        <f t="shared" si="63"/>
         <v>2071.67</v>
       </c>
       <c r="J174" s="4">
-        <f>J173+J76</f>
+        <f t="shared" si="63"/>
         <v>299.14999999999998</v>
       </c>
       <c r="K174" s="4">
-        <f>K173+K76</f>
+        <f t="shared" si="63"/>
         <v>758.88</v>
       </c>
       <c r="L174" s="4">
-        <f>L173+L76</f>
+        <f t="shared" si="63"/>
         <v>229.74</v>
       </c>
       <c r="M174" s="4">
-        <f>M173+M76</f>
+        <f t="shared" si="63"/>
         <v>2144.54</v>
       </c>
       <c r="N174" s="4">
-        <f>N173+N76</f>
+        <f t="shared" si="63"/>
         <v>-917.74</v>
       </c>
       <c r="O174" s="4">
-        <f>O173+O76</f>
+        <f t="shared" si="63"/>
         <v>2748.21</v>
       </c>
       <c r="P174" s="5">
-        <f>P173+P76</f>
+        <f t="shared" si="63"/>
         <v>7209.4500000000007</v>
       </c>
       <c r="Q174" s="6">
-        <f>Q173+Q76</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -9460,59 +9460,59 @@
         <v>CP54</v>
       </c>
       <c r="D175" s="4">
-        <f>D132+D88</f>
+        <f t="shared" ref="D175:Q175" si="64">D132+D88</f>
         <v>0</v>
       </c>
       <c r="E175" s="4">
-        <f>E132+E88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F175" s="4">
-        <f>F132+F88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G175" s="4">
-        <f>G132+G88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H175" s="4">
-        <f>H132+H88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I175" s="4">
-        <f>I132+I88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J175" s="4">
-        <f>J132+J88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K175" s="4">
-        <f>K132+K88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="L175" s="4">
-        <f>L132+L88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M175" s="4">
-        <f>M132+M88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N175" s="4">
-        <f>N132+N88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O175" s="4">
-        <f>O132+O88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P175" s="5">
-        <f>P132+P88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q175" s="6">
-        <f>Q132+Q88</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -9529,59 +9529,59 @@
         <v>CP59</v>
       </c>
       <c r="D176" s="4">
-        <f>D82</f>
+        <f t="shared" ref="D176:Q176" si="65">D82</f>
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <f>E82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="F176" s="4">
-        <f>F82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G176" s="4">
-        <f>G82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H176" s="4">
-        <f>H82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I176" s="4">
-        <f>I82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J176" s="4">
-        <f>J82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="K176" s="4">
-        <f>K82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L176" s="4">
-        <f>L82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M176" s="4">
-        <f>M82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N176" s="4">
-        <f>N82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O176" s="4">
-        <f>O82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P176" s="5">
-        <f>P82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q176" s="6">
-        <f>Q82</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -9598,59 +9598,59 @@
         <v>CP511</v>
       </c>
       <c r="D177" s="4">
-        <f>D97+D93</f>
+        <f t="shared" ref="D177:Q177" si="66">D97+D93</f>
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <f>E97+E93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F177" s="4">
-        <f>F97+F93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G177" s="4">
-        <f>G97+G93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H177" s="4">
-        <f>H97+H93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I177" s="4">
-        <f>I97+I93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J177" s="4">
-        <f>J97+J93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K177" s="4">
-        <f>K97+K93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="L177" s="4">
-        <f>L97+L93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M177" s="4">
-        <f>M97+M93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N177" s="4">
-        <f>N97+N93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O177" s="4">
-        <f>O97+O93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P177" s="5">
-        <f>P97+P93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q177" s="6">
-        <f>Q97+Q93</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -9667,59 +9667,59 @@
         <v>TC-VAT</v>
       </c>
       <c r="D178" s="58">
-        <f>D24+D68+D82+D33+D76+D55+D97+D93+D15+D88+D45</f>
+        <f t="shared" ref="D178:Q178" si="67">D24+D68+D82+D33+D76+D55+D97+D93+D15+D88+D45</f>
         <v>0</v>
       </c>
       <c r="E178" s="58">
-        <f>E24+E68+E82+E33+E76+E55+E97+E93+E15+E88+E45</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F178" s="58">
-        <f>F24+F68+F82+F33+F76+F55+F97+F93+F15+F88+F45</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G178" s="58">
-        <f>G24+G68+G82+G33+G76+G55+G97+G93+G15+G88+G45</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H178" s="58">
-        <f>H24+H68+H82+H33+H76+H55+H97+H93+H15+H88+H45</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I178" s="58">
-        <f>I24+I68+I82+I33+I76+I55+I97+I93+I15+I88+I45</f>
+        <f t="shared" si="67"/>
         <v>821.67</v>
       </c>
       <c r="J178" s="58">
-        <f>J24+J68+J82+J33+J76+J55+J97+J93+J15+J88+J45</f>
+        <f t="shared" si="67"/>
         <v>674.15</v>
       </c>
       <c r="K178" s="58">
-        <f>K24+K68+K82+K33+K76+K55+K97+K93+K15+K88+K45</f>
+        <f t="shared" si="67"/>
         <v>456.88</v>
       </c>
       <c r="L178" s="58">
-        <f>L24+L68+L82+L33+L76+L55+L97+L93+L15+L88+L45</f>
+        <f t="shared" si="67"/>
         <v>354.74</v>
       </c>
       <c r="M178" s="58">
-        <f>M24+M68+M82+M33+M76+M55+M97+M93+M15+M88+M45</f>
+        <f t="shared" si="67"/>
         <v>669.54000000000008</v>
       </c>
       <c r="N178" s="58">
-        <f>N24+N68+N82+N33+N76+N55+N97+N93+N15+N88+N45</f>
+        <f t="shared" si="67"/>
         <v>-285</v>
       </c>
       <c r="O178" s="58">
-        <f>O24+O68+O82+O33+O76+O55+O97+O93+O15+O88+O45</f>
+        <f t="shared" si="67"/>
         <v>737.69999999999982</v>
       </c>
       <c r="P178" s="59">
-        <f>P24+P68+P82+P33+P76+P55+P97+P93+P15+P88+P45</f>
+        <f t="shared" si="67"/>
         <v>3429.6799999999994</v>
       </c>
       <c r="Q178" s="60">
-        <f>Q24+Q68+Q82+Q33+Q76+Q55+Q97+Q93+Q15+Q88+Q45</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -9895,59 +9895,59 @@
       </c>
       <c r="B184" s="47"/>
       <c r="D184" s="48">
-        <f>SUM(D181:D183)</f>
+        <f t="shared" ref="D184:Q184" si="68">SUM(D181:D183)</f>
         <v>19042.66</v>
       </c>
       <c r="E184" s="48">
-        <f>SUM(E181:E183)</f>
+        <f t="shared" si="68"/>
         <v>19042.66</v>
       </c>
       <c r="F184" s="48">
-        <f>SUM(F181:F183)</f>
+        <f t="shared" si="68"/>
         <v>19042.66</v>
       </c>
       <c r="G184" s="48">
-        <f>SUM(G181:G183)</f>
+        <f t="shared" si="68"/>
         <v>19042.66</v>
       </c>
       <c r="H184" s="48">
-        <f>SUM(H181:H183)</f>
+        <f t="shared" si="68"/>
         <v>19042.66</v>
       </c>
       <c r="I184" s="48">
-        <f>SUM(I181:I183)</f>
+        <f t="shared" si="68"/>
         <v>20028.66</v>
       </c>
       <c r="J184" s="48">
-        <f>SUM(J181:J183)</f>
+        <f t="shared" si="68"/>
         <v>19879.3</v>
       </c>
       <c r="K184" s="48">
-        <f>SUM(K181:K183)</f>
+        <f t="shared" si="68"/>
         <v>20427.559999999998</v>
       </c>
       <c r="L184" s="48">
-        <f>SUM(L181:L183)</f>
+        <f t="shared" si="68"/>
         <v>20853.25</v>
       </c>
       <c r="M184" s="48">
-        <f>SUM(M181:M183)</f>
+        <f t="shared" si="68"/>
         <v>20698.36</v>
       </c>
       <c r="N184" s="48">
-        <f>SUM(N181:N183)</f>
+        <f t="shared" si="68"/>
         <v>19519.36</v>
       </c>
       <c r="O184" s="48">
-        <f>SUM(O181:O183)</f>
+        <f t="shared" si="68"/>
         <v>16978.599999999999</v>
       </c>
       <c r="P184" s="49">
-        <f>SUM(P181:P183)</f>
+        <f t="shared" si="68"/>
         <v>16978.599999999999</v>
       </c>
       <c r="Q184" s="50">
-        <f>SUM(Q181:Q183)</f>
+        <f t="shared" si="68"/>
         <v>15608.8</v>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
         <v>625</v>
       </c>
       <c r="P187" s="5">
-        <f>O187</f>
+        <f t="shared" ref="P187:P198" si="69">O187</f>
         <v>625</v>
       </c>
       <c r="Q187" s="25">
@@ -10068,7 +10068,7 @@
         <v>1250.25</v>
       </c>
       <c r="P188" s="5">
-        <f>O188</f>
+        <f t="shared" si="69"/>
         <v>1250.25</v>
       </c>
       <c r="Q188" s="25">
@@ -10119,7 +10119,7 @@
         <v>2279.52</v>
       </c>
       <c r="P189" s="5">
-        <f>O189</f>
+        <f t="shared" si="69"/>
         <v>2279.52</v>
       </c>
       <c r="Q189" s="25">
@@ -10170,7 +10170,7 @@
         <v>12124.98</v>
       </c>
       <c r="P190" s="5">
-        <f>O190</f>
+        <f t="shared" si="69"/>
         <v>12124.98</v>
       </c>
       <c r="Q190" s="25">
@@ -10197,22 +10197,22 @@
         <v>5001</v>
       </c>
       <c r="H191" s="24">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I191" s="24">
-        <v>986</v>
+        <v>5987</v>
       </c>
       <c r="J191" s="24">
-        <v>1794.98</v>
+        <v>6795.98</v>
       </c>
       <c r="K191" s="24">
-        <v>2343.2399999999998</v>
+        <v>7344.24</v>
       </c>
       <c r="L191" s="24">
-        <v>2768.93</v>
+        <v>7769.93</v>
       </c>
       <c r="M191" s="24">
-        <v>3572.38</v>
+        <v>8573.380000000001</v>
       </c>
       <c r="N191" s="24">
         <v>7394.38</v>
@@ -10221,7 +10221,7 @@
         <v>4853.62</v>
       </c>
       <c r="P191" s="5">
-        <f>O191</f>
+        <f t="shared" si="69"/>
         <v>4853.62</v>
       </c>
       <c r="Q191" s="25">
@@ -10272,7 +10272,7 @@
         <v>4266</v>
       </c>
       <c r="P192" s="5">
-        <f>O192</f>
+        <f t="shared" si="69"/>
         <v>4266</v>
       </c>
       <c r="Q192" s="25">
@@ -10323,7 +10323,7 @@
         <v>-1</v>
       </c>
       <c r="P193" s="5">
-        <f>O193</f>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="Q193" s="25">
@@ -10374,7 +10374,7 @@
         <v>-17499.98</v>
       </c>
       <c r="P194" s="5">
-        <f>O194</f>
+        <f t="shared" si="69"/>
         <v>-17499.98</v>
       </c>
       <c r="Q194" s="25">
@@ -10425,7 +10425,7 @@
         <v>-1369.7955099999999</v>
       </c>
       <c r="P195" s="5">
-        <f>O195</f>
+        <f t="shared" si="69"/>
         <v>-1369.7955099999999</v>
       </c>
       <c r="Q195" s="25">
@@ -10476,7 +10476,7 @@
         <v>-688.94</v>
       </c>
       <c r="P196" s="5">
-        <f>O196</f>
+        <f t="shared" si="69"/>
         <v>-688.94</v>
       </c>
       <c r="Q196" s="25">
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="5">
-        <f>O197</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q197" s="25">
@@ -10540,55 +10540,55 @@
       </c>
       <c r="B198" s="47"/>
       <c r="D198" s="48">
-        <f>SUM(D187:D197)</f>
+        <f t="shared" ref="D198:O198" si="70">SUM(D187:D197)</f>
         <v>-958.34000000000015</v>
       </c>
       <c r="E198" s="48">
-        <f>SUM(E187:E197)</f>
+        <f t="shared" si="70"/>
         <v>-958.34000000000015</v>
       </c>
       <c r="F198" s="48">
-        <f>SUM(F187:F197)</f>
+        <f t="shared" si="70"/>
         <v>-958.34000000000015</v>
       </c>
       <c r="G198" s="48">
-        <f>SUM(G187:G197)</f>
+        <f t="shared" si="70"/>
         <v>-125</v>
       </c>
       <c r="H198" s="48">
-        <f>SUM(H187:H197)</f>
-        <v>-5126</v>
+        <f t="shared" si="70"/>
+        <v>-125</v>
       </c>
       <c r="I198" s="48">
-        <f>SUM(I187:I197)</f>
-        <v>-3054.33</v>
+        <f t="shared" si="70"/>
+        <v>1946.67</v>
       </c>
       <c r="J198" s="48">
-        <f>SUM(J187:J197)</f>
-        <v>-2755.1800000000003</v>
+        <f t="shared" si="70"/>
+        <v>2245.8199999999997</v>
       </c>
       <c r="K198" s="48">
-        <f>SUM(K187:K197)</f>
-        <v>-1996.300000000002</v>
+        <f t="shared" si="70"/>
+        <v>3004.699999999998</v>
       </c>
       <c r="L198" s="48">
-        <f>SUM(L187:L197)</f>
-        <v>-1766.5599999999997</v>
+        <f t="shared" si="70"/>
+        <v>3234.4400000000005</v>
       </c>
       <c r="M198" s="48">
-        <f>SUM(M187:M197)</f>
-        <v>377.98000000000104</v>
+        <f t="shared" si="70"/>
+        <v>5378.9800000000014</v>
       </c>
       <c r="N198" s="48">
-        <f>SUM(N187:N197)</f>
+        <f t="shared" si="70"/>
         <v>4461.24</v>
       </c>
       <c r="O198" s="48">
-        <f>SUM(O187:O197)</f>
+        <f t="shared" si="70"/>
         <v>5839.654489999999</v>
       </c>
       <c r="P198" s="49">
-        <f>O198</f>
+        <f t="shared" si="69"/>
         <v>5839.654489999999</v>
       </c>
       <c r="Q198" s="50">
